--- a/backend/resource/neo4j2.xlsx
+++ b/backend/resource/neo4j2.xlsx
@@ -5,22 +5,23 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lin/graph/guotu/libot/backend/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="2000" windowWidth="28080" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
-    <sheet name="area" sheetId="4" r:id="rId2"/>
-    <sheet name="resource" sheetId="2" r:id="rId3"/>
-    <sheet name="floor" sheetId="3" r:id="rId4"/>
-    <sheet name="activity" sheetId="5" r:id="rId5"/>
-    <sheet name="resource_type" sheetId="6" r:id="rId6"/>
+    <sheet name="card" sheetId="7" r:id="rId2"/>
+    <sheet name="area" sheetId="4" r:id="rId3"/>
+    <sheet name="resource" sheetId="2" r:id="rId4"/>
+    <sheet name="floor" sheetId="3" r:id="rId5"/>
+    <sheet name="activity" sheetId="5" r:id="rId6"/>
+    <sheet name="resource_type" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">resource!$A$1:$F$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">resource!$A$1:$F$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">room!$A$1:$W$96</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="790">
   <si>
     <t>总馆北区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -619,18 +620,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010-88544355</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,14 +629,6 @@
   </si>
   <si>
     <t>提供近年出版的中文图书与部分图书配套光盘的借阅服务；提供首都图书馆联盟还书服务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -741,10 +722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010-88545952</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -789,10 +766,6 @@
   </si>
   <si>
     <t>提供近二十年来出版的少数民族语文图书、近两年的少数民族语文期刊及当年省级少数民族语文报纸开架阅览服务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -813,11 +786,6 @@
   <si>
     <t>近三年低幼读物、绘本读物、拼音读物、桥梁读物、双语读物和民语读物等少儿文献2万余册；固定座位约150个，适合亲子共读。
 为少年儿童提供低幼文献开架阅览、闭架阅览、阅读辅导等服务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>儿童：国家图书馆少年儿童馆读者卡，户口簿，第二代居民身份证，学生证（或学籍卡），护照，港澳通行证
-家长：国家图书馆成人读者卡，户口簿，第二代居民身份证，军官证，护照，港澳通行证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -872,11 +840,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>儿童：国家图书馆少年儿童馆读者卡，户口簿，第二代居民身份证，学生证（或学籍卡），护照，港澳通行证
-家长：国家图书馆成人读者卡，户口簿，第二代居民身份证，军官证，护照，港澳通行证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010-88545080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,10 +906,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提供近二十年出版的外文基藏图书外借服务。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1080,10 +1039,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国家图书馆读者卡，第二代身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提供2000年后西文中国学图书；2010年后俄文、日文中国学图书；2015年后小语种中国学图书；2011年后西文、俄文、日文中国学期刊；中国学中文译著、专著及中外文工具书闭架阅览服务。</t>
   </si>
   <si>
@@ -1496,14 +1451,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>除数据资源外的实体图书资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图书</t>
-  </si>
-  <si>
-    <t>图书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1539,9 +1487,6 @@
   </si>
   <si>
     <t>期刊</t>
-  </si>
-  <si>
-    <t>期刊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1561,20 +1506,6 @@
   </si>
   <si>
     <t>报纸</t>
-  </si>
-  <si>
-    <t>286,489（合订册）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>184,275（合订册）</t>
-  </si>
-  <si>
-    <t>报纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102,214（合订册）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1604,18 +1535,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>183,083（册，张，幅，件）</t>
-  </si>
-  <si>
     <t>善本特藏阅览室</t>
   </si>
   <si>
-    <t>172,022（张，幅）</t>
-  </si>
-  <si>
-    <t>329,411（张，片）</t>
-  </si>
-  <si>
     <t>中国少数民族语文文献阅览室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1624,10 +1546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>家谱与地方志资料合计137,274</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>家谱旧方志阅览室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1636,10 +1554,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学位论文及国内其它资料合计2，577，563</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学位论文阅览室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1652,29 +1566,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缩微胶卷与微缩平片合计1,665,254</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缩微文献阅览室</t>
   </si>
   <si>
-    <t>缩微胶卷与微缩平片合计1,665,254</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>视听文献</t>
   </si>
   <si>
-    <t>439,250（张，盘）</t>
-  </si>
-  <si>
     <t>录音带</t>
   </si>
   <si>
-    <t>3万余盒</t>
-  </si>
-  <si>
     <t>视听阅览区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1686,15 +1586,9 @@
     <t>录像带</t>
   </si>
   <si>
-    <t>1.4万余盒</t>
-  </si>
-  <si>
     <t>激光唱片</t>
   </si>
   <si>
-    <t>5.7万余张</t>
-  </si>
-  <si>
     <t>视听文献</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1702,38 +1596,13 @@
     <t>立体声唱片</t>
   </si>
   <si>
-    <t>967张</t>
-  </si>
-  <si>
-    <t>5,377张</t>
-  </si>
-  <si>
-    <t>1,880张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>视听阅览区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.8万余张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>260盒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.4万余张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电子文献</t>
   </si>
   <si>
-    <t>108,988（张，盘）</t>
-  </si>
-  <si>
     <t>法律参考文献</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1815,10 +1684,6 @@
     <t>科学技术咨询室</t>
   </si>
   <si>
-    <t>1960.91TB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图书（数字资源）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1837,14 +1702,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>期刊（数字资源）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字期刊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电子期刊（种）</t>
   </si>
   <si>
@@ -1852,14 +1709,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报纸（数字资源）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字报纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电子报纸（种）</t>
   </si>
   <si>
@@ -1973,14 +1822,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缩微文献</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩微文献</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总馆北区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2501,22 +2342,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中文报纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汉语报纸，中国报纸，中文报纸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外文报纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外语报纸，英文报纸，英语报纸，德语报纸，法语报纸，日语报纸，外文报纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中文_港澳台及海外报纸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2645,10 +2474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缩微平片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平片，缩微平片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2890,18 +2715,6 @@
   </si>
   <si>
     <t>数字会议论文，会议论文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文报纸区，中文期刊区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文期刊区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文报纸区，中文期刊区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3497,12 +3310,109 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>国家图书馆读者卡，第二代身份证，读者卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家图书馆少年儿童馆读者卡，读者卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通行证</t>
+    <rPh sb="0" eb="1">
+      <t>tong xing z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <rPh sb="0" eb="1">
+      <t>nian l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家图书馆读者卡</t>
+  </si>
+  <si>
+    <t>满16岁</t>
+    <rPh sb="0" eb="1">
+      <t>man</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二代身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二代身份证</t>
+  </si>
+  <si>
+    <t>满16岁</t>
+  </si>
+  <si>
+    <t>读者卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读者卡</t>
+  </si>
+  <si>
+    <t>13-15岁</t>
+    <rPh sb="5" eb="6">
+      <t>sui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年儿童图书馆读者卡</t>
+    <rPh sb="7" eb="8">
+      <t>du zhe ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年儿童图书馆读者卡</t>
+  </si>
+  <si>
+    <t>不满13岁</t>
+    <rPh sb="0" eb="1">
+      <t>bu man</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外借</t>
+    <rPh sb="0" eb="1">
+      <t>wai jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文报纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩微平片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体资源</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3598,6 +3508,13 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3667,7 +3584,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3700,15 +3616,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -3998,8 +3915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE110"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4028,101 +3945,104 @@
     <col min="23" max="23" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>737</v>
+        <v>687</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>738</v>
+        <v>688</v>
       </c>
       <c r="C1" t="s">
-        <v>739</v>
+        <v>689</v>
       </c>
       <c r="D1" t="s">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="E1" t="s">
-        <v>741</v>
+        <v>691</v>
       </c>
       <c r="F1" t="s">
-        <v>742</v>
+        <v>692</v>
       </c>
       <c r="G1" t="s">
-        <v>743</v>
+        <v>693</v>
       </c>
       <c r="H1" t="s">
-        <v>745</v>
+        <v>695</v>
       </c>
       <c r="I1" t="s">
-        <v>744</v>
+        <v>694</v>
       </c>
       <c r="J1" t="s">
-        <v>746</v>
+        <v>696</v>
       </c>
       <c r="K1" t="s">
-        <v>747</v>
+        <v>697</v>
       </c>
       <c r="L1" t="s">
-        <v>748</v>
+        <v>698</v>
       </c>
       <c r="M1" t="s">
-        <v>749</v>
+        <v>699</v>
       </c>
       <c r="N1" t="s">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="O1" t="s">
-        <v>751</v>
+        <v>701</v>
       </c>
       <c r="P1" t="s">
-        <v>752</v>
+        <v>702</v>
       </c>
       <c r="Q1" t="s">
-        <v>753</v>
+        <v>703</v>
       </c>
       <c r="R1" t="s">
-        <v>754</v>
+        <v>704</v>
       </c>
       <c r="S1" t="s">
-        <v>755</v>
+        <v>705</v>
       </c>
       <c r="T1" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>757</v>
+        <v>707</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="X1" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>730</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>731</v>
+      </c>
+      <c r="AC1" t="s">
         <v>758</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="X1" t="s">
-        <v>777</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>778</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>779</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>780</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>781</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
         <v>105</v>
@@ -4179,46 +4099,46 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="W2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>503</v>
+        <v>460</v>
       </c>
       <c r="U3" t="s">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
       <c r="U4" t="s">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -4230,7 +4150,7 @@
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
         <v>111</v>
@@ -4278,32 +4198,32 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="W5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="B6" t="s">
-        <v>508</v>
+        <v>465</v>
       </c>
       <c r="U6" t="s">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="75" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>585</v>
+        <v>542</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -4315,7 +4235,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G7" t="s">
         <v>107</v>
@@ -4360,61 +4280,64 @@
         <v>117</v>
       </c>
       <c r="U7" t="s">
-        <v>714</v>
+        <v>667</v>
       </c>
       <c r="V7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="W7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="U8" t="s">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="U9" t="s">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="30" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="B10" t="s">
-        <v>570</v>
+        <v>527</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G10" t="s">
         <v>107</v>
@@ -4441,71 +4364,71 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
-        <v>578</v>
+        <v>535</v>
       </c>
       <c r="U11" t="s">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>584</v>
+        <v>541</v>
       </c>
       <c r="U12" t="s">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="U13" t="s">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>588</v>
+        <v>545</v>
       </c>
       <c r="U14" t="s">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="75" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>586</v>
+        <v>543</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -4517,7 +4440,7 @@
         <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="G15" t="s">
         <v>107</v>
@@ -4565,18 +4488,18 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="W15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C16" t="s">
         <v>104</v>
@@ -4588,7 +4511,7 @@
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
         <v>107</v>
@@ -4636,24 +4559,24 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="W16" t="s">
-        <v>147</v>
+        <v>771</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
-        <v>589</v>
+        <v>546</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
         <v>48</v>
@@ -4686,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -4697,45 +4620,45 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="U18" t="s">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>590</v>
+        <v>547</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G19" t="s">
         <v>110</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s">
         <v>122</v>
       </c>
       <c r="M19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s">
         <v>122</v>
@@ -4750,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -4761,10 +4684,10 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G20" t="s">
         <v>110</v>
@@ -4773,7 +4696,7 @@
         <v>127</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M20" t="s">
         <v>110</v>
@@ -4791,27 +4714,27 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>591</v>
+        <v>548</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
         <v>122</v>
@@ -4838,27 +4761,27 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>568</v>
+        <v>525</v>
       </c>
       <c r="B22" t="s">
-        <v>569</v>
+        <v>526</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G22" t="s">
         <v>107</v>
@@ -4885,21 +4808,21 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B23" t="s">
-        <v>579</v>
+        <v>536</v>
       </c>
       <c r="U23" t="s">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
@@ -4907,13 +4830,13 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>584</v>
+        <v>541</v>
       </c>
       <c r="U24" t="s">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
@@ -4921,21 +4844,21 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>566</v>
+        <v>523</v>
       </c>
       <c r="U25" t="s">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B26" t="s">
-        <v>587</v>
+        <v>544</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -4947,7 +4870,7 @@
         <v>49</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G26" t="s">
         <v>107</v>
@@ -4995,38 +4918,38 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="W26" t="s">
-        <v>145</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="U27" t="s">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>565</v>
+        <v>522</v>
       </c>
       <c r="B28" t="s">
-        <v>567</v>
+        <v>524</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
         <v>50</v>
@@ -5057,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
@@ -5065,13 +4988,13 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>584</v>
+        <v>541</v>
       </c>
       <c r="U29" t="s">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -5079,33 +5002,33 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>564</v>
+        <v>521</v>
       </c>
       <c r="U30" t="s">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>562</v>
+        <v>519</v>
       </c>
       <c r="B31" t="s">
-        <v>563</v>
+        <v>520</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F31" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G31" t="s">
         <v>109</v>
@@ -5153,10 +5076,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="W31" t="s">
-        <v>175</v>
+        <v>771</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
@@ -5164,16 +5087,16 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>561</v>
+        <v>518</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E32" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F32" t="s">
         <v>45</v>
@@ -5218,30 +5141,30 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="W32" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>592</v>
+        <v>549</v>
       </c>
       <c r="B33" t="s">
-        <v>593</v>
+        <v>550</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
         <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G33" t="s">
         <v>107</v>
@@ -5289,30 +5212,30 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="W33" t="s">
-        <v>175</v>
+        <v>771</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="B34" t="s">
-        <v>594</v>
+        <v>551</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
         <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G34" t="s">
         <v>107</v>
@@ -5360,10 +5283,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="W34" t="s">
-        <v>151</v>
+        <v>771</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="45" x14ac:dyDescent="0.2">
@@ -5371,25 +5294,25 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>560</v>
+        <v>517</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="G35" t="s">
         <v>107</v>
       </c>
       <c r="H35" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I35" t="s">
         <v>106</v>
@@ -5431,10 +5354,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="W35" t="s">
-        <v>147</v>
+        <v>771</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
@@ -5442,13 +5365,13 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>559</v>
+        <v>516</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
         <v>47</v>
@@ -5502,38 +5425,38 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="W36" t="s">
-        <v>188</v>
+        <v>771</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B37" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="U37" t="s">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>558</v>
+        <v>515</v>
       </c>
       <c r="B38" t="s">
-        <v>570</v>
+        <v>527</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
         <v>51</v>
@@ -5566,21 +5489,21 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>732</v>
+        <v>682</v>
       </c>
       <c r="B39" t="s">
-        <v>574</v>
+        <v>531</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s">
         <v>46</v>
@@ -5613,21 +5536,21 @@
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B40" t="s">
-        <v>580</v>
+        <v>537</v>
       </c>
       <c r="U40" t="s">
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
@@ -5635,21 +5558,21 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>584</v>
+        <v>541</v>
       </c>
       <c r="U41" t="s">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B42" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>32</v>
@@ -5658,7 +5581,7 @@
         <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="G42" t="s">
         <v>117</v>
@@ -5706,15 +5629,15 @@
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B43" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>31</v>
@@ -5723,7 +5646,7 @@
         <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G43" t="s">
         <v>110</v>
@@ -5768,10 +5691,10 @@
         <v>30</v>
       </c>
       <c r="U43" t="s">
-        <v>501</v>
+        <v>458</v>
       </c>
       <c r="V43" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
@@ -5779,27 +5702,27 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="U44" t="s">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B45" t="s">
-        <v>557</v>
+        <v>514</v>
       </c>
       <c r="C45" t="s">
         <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
         <v>47</v>
@@ -5853,21 +5776,21 @@
         <v>17</v>
       </c>
       <c r="V45" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>556</v>
+        <v>513</v>
       </c>
       <c r="B46" t="s">
-        <v>720</v>
+        <v>673</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E46" t="s">
         <v>47</v>
@@ -5900,7 +5823,7 @@
         <v>17</v>
       </c>
       <c r="V46" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -5914,10 +5837,10 @@
         <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F47" t="s">
         <v>102</v>
@@ -5956,27 +5879,27 @@
         <v>17</v>
       </c>
       <c r="V47" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="W47" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>555</v>
+        <v>512</v>
       </c>
       <c r="B48" t="s">
-        <v>722</v>
+        <v>675</v>
       </c>
       <c r="C48" t="s">
         <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F48" t="s">
         <v>100</v>
@@ -6015,24 +5938,24 @@
         <v>17</v>
       </c>
       <c r="V48" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="W48" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="C49" t="s">
         <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>52</v>
@@ -6080,24 +6003,24 @@
         <v>17</v>
       </c>
       <c r="V49" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="W49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="B50" t="s">
-        <v>554</v>
+        <v>511</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E50" t="s">
         <v>46</v>
@@ -6151,30 +6074,30 @@
         <v>17</v>
       </c>
       <c r="V50" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="W50" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="45" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="45" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>552</v>
+        <v>509</v>
       </c>
       <c r="C51" t="s">
         <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="G51" t="s">
         <v>110</v>
@@ -6216,24 +6139,24 @@
         <v>17</v>
       </c>
       <c r="V51" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="W51" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>571</v>
+        <v>528</v>
       </c>
       <c r="B52" t="s">
-        <v>575</v>
+        <v>532</v>
       </c>
       <c r="C52" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E52" t="s">
         <v>47</v>
@@ -6266,27 +6189,27 @@
         <v>17</v>
       </c>
       <c r="V52" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>551</v>
+        <v>508</v>
       </c>
       <c r="C53" t="s">
         <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F53" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G53" t="s">
         <v>110</v>
@@ -6322,24 +6245,24 @@
         <v>17</v>
       </c>
       <c r="V53" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>549</v>
+        <v>506</v>
       </c>
       <c r="C54" t="s">
         <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F54" t="s">
         <v>97</v>
@@ -6378,27 +6301,27 @@
         <v>17</v>
       </c>
       <c r="V54" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="C55" t="s">
         <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F55" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G55" t="s">
         <v>30</v>
@@ -6434,24 +6357,24 @@
         <v>17</v>
       </c>
       <c r="V55" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>548</v>
+        <v>505</v>
       </c>
       <c r="C56" t="s">
         <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F56" t="s">
         <v>77</v>
@@ -6496,24 +6419,27 @@
         <v>17</v>
       </c>
       <c r="V56" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="W56" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="B57" t="s">
-        <v>547</v>
+        <v>504</v>
       </c>
       <c r="C57" t="s">
         <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E57" t="s">
         <v>76</v>
@@ -6567,13 +6493,13 @@
         <v>17</v>
       </c>
       <c r="V57" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="W57" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -6584,7 +6510,7 @@
         <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>52</v>
@@ -6632,27 +6558,27 @@
         <v>17</v>
       </c>
       <c r="V58" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="W58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>544</v>
+        <v>501</v>
       </c>
       <c r="B59" t="s">
-        <v>545</v>
+        <v>502</v>
       </c>
       <c r="C59" t="s">
         <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F59" t="s">
         <v>84</v>
@@ -6697,27 +6623,27 @@
         <v>17</v>
       </c>
       <c r="V59" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="W59" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>542</v>
+        <v>499</v>
       </c>
       <c r="B60" t="s">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="C60" t="s">
         <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F60" t="s">
         <v>70</v>
@@ -6762,27 +6688,27 @@
         <v>17</v>
       </c>
       <c r="V60" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="W60" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F61" t="s">
         <v>74</v>
@@ -6827,27 +6753,27 @@
         <v>17</v>
       </c>
       <c r="V61" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="W61" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>537</v>
+        <v>494</v>
       </c>
       <c r="B62" t="s">
-        <v>538</v>
+        <v>495</v>
       </c>
       <c r="C62" t="s">
         <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F62" t="s">
         <v>72</v>
@@ -6892,27 +6818,27 @@
         <v>17</v>
       </c>
       <c r="V62" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="W62" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="C63" t="s">
         <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F63" t="s">
         <v>94</v>
@@ -6951,24 +6877,24 @@
         <v>17</v>
       </c>
       <c r="V63" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="C64" t="s">
         <v>92</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F64" t="s">
         <v>95</v>
@@ -7007,21 +6933,21 @@
         <v>17</v>
       </c>
       <c r="V64" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s">
-        <v>735</v>
+        <v>685</v>
       </c>
       <c r="C65" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E65" t="s">
         <v>46</v>
@@ -7075,10 +7001,10 @@
         <v>17</v>
       </c>
       <c r="V65" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="W65" t="s">
-        <v>175</v>
+        <v>771</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
@@ -7086,13 +7012,13 @@
         <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>535</v>
+        <v>492</v>
       </c>
       <c r="C66" t="s">
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E66" t="s">
         <v>46</v>
@@ -7146,10 +7072,10 @@
         <v>17</v>
       </c>
       <c r="V66" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="W66" t="s">
-        <v>175</v>
+        <v>771</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
@@ -7157,13 +7083,13 @@
         <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>536</v>
+        <v>493</v>
       </c>
       <c r="C67" t="s">
         <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E67" t="s">
         <v>48</v>
@@ -7217,10 +7143,10 @@
         <v>17</v>
       </c>
       <c r="V67" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="W67" t="s">
-        <v>175</v>
+        <v>771</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -7228,16 +7154,16 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>534</v>
+        <v>491</v>
       </c>
       <c r="C68" t="s">
         <v>87</v>
       </c>
       <c r="D68" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F68" t="s">
         <v>88</v>
@@ -7282,10 +7208,10 @@
         <v>17</v>
       </c>
       <c r="V68" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="W68" t="s">
-        <v>258</v>
+        <v>771</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -7299,7 +7225,7 @@
         <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>52</v>
@@ -7347,21 +7273,21 @@
         <v>17</v>
       </c>
       <c r="V69" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="W69" t="s">
-        <v>151</v>
+        <v>771</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B70" t="s">
-        <v>712</v>
+        <v>665</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F70" t="s">
         <v>58</v>
@@ -7406,18 +7332,18 @@
         <v>17</v>
       </c>
       <c r="V70" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>533</v>
+        <v>490</v>
       </c>
       <c r="B71" t="s">
-        <v>713</v>
+        <v>666</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F71" t="s">
         <v>58</v>
@@ -7462,188 +7388,188 @@
         <v>17</v>
       </c>
       <c r="V71" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B72" t="s">
-        <v>532</v>
+        <v>489</v>
       </c>
       <c r="U72" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="V72" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B73" t="s">
-        <v>532</v>
+        <v>489</v>
       </c>
       <c r="U73" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="V73" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B74" t="s">
-        <v>531</v>
+        <v>488</v>
       </c>
       <c r="U74" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="V74" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B75" t="s">
-        <v>531</v>
+        <v>488</v>
       </c>
       <c r="U75" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="V75" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B76" t="s">
-        <v>530</v>
+        <v>487</v>
       </c>
       <c r="U76" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="V76" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B77" t="s">
-        <v>529</v>
+        <v>486</v>
       </c>
       <c r="U77" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="V77" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>734</v>
+        <v>684</v>
       </c>
       <c r="B78" t="s">
-        <v>528</v>
+        <v>485</v>
       </c>
       <c r="C78" t="s">
         <v>57</v>
       </c>
       <c r="D78" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F78" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G78" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I78" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="K78" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="M78" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="O78" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="U78" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="V78" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B79" t="s">
-        <v>581</v>
+        <v>538</v>
       </c>
       <c r="U79" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="V79" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B80" t="s">
-        <v>527</v>
+        <v>484</v>
       </c>
       <c r="U80" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="V80" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B81" t="s">
-        <v>532</v>
+        <v>489</v>
       </c>
       <c r="U81" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="V81" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B82" t="s">
-        <v>526</v>
+        <v>483</v>
       </c>
       <c r="U82" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="V82" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -7651,16 +7577,16 @@
         <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>595</v>
+        <v>552</v>
       </c>
       <c r="C83" t="s">
         <v>53</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F83" t="s">
         <v>55</v>
@@ -7696,58 +7622,58 @@
         <v>30</v>
       </c>
       <c r="U83" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="V83" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="W83" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B84" t="s">
-        <v>582</v>
+        <v>539</v>
       </c>
       <c r="U84" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="V84" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B85" t="s">
-        <v>525</v>
+        <v>482</v>
       </c>
       <c r="U85" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="V85" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B86" t="s">
-        <v>736</v>
+        <v>686</v>
       </c>
       <c r="C86" t="s">
         <v>54</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F86" t="s">
         <v>56</v>
@@ -7783,13 +7709,13 @@
         <v>30</v>
       </c>
       <c r="U86" t="s">
-        <v>768</v>
+        <v>718</v>
       </c>
       <c r="V86" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="W86" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="45" x14ac:dyDescent="0.2">
@@ -7797,16 +7723,16 @@
         <v>135</v>
       </c>
       <c r="B87" t="s">
-        <v>524</v>
+        <v>481</v>
       </c>
       <c r="C87" t="s">
         <v>54</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F87" t="s">
         <v>56</v>
@@ -7842,13 +7768,13 @@
         <v>30</v>
       </c>
       <c r="U87" t="s">
-        <v>768</v>
+        <v>718</v>
       </c>
       <c r="V87" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="W87" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="45" x14ac:dyDescent="0.2">
@@ -7856,16 +7782,16 @@
         <v>134</v>
       </c>
       <c r="B88" t="s">
-        <v>523</v>
+        <v>480</v>
       </c>
       <c r="C88" t="s">
         <v>54</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F88" t="s">
         <v>56</v>
@@ -7901,121 +7827,121 @@
         <v>30</v>
       </c>
       <c r="U88" t="s">
-        <v>768</v>
+        <v>718</v>
       </c>
       <c r="V88" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="W88" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B89" t="s">
-        <v>522</v>
+        <v>479</v>
       </c>
       <c r="U89" t="s">
-        <v>768</v>
+        <v>718</v>
       </c>
       <c r="V89" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B90" t="s">
-        <v>521</v>
+        <v>478</v>
       </c>
       <c r="U90" t="s">
-        <v>768</v>
+        <v>718</v>
       </c>
       <c r="V90" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B91" t="s">
-        <v>583</v>
+        <v>540</v>
       </c>
       <c r="U91" t="s">
-        <v>768</v>
+        <v>718</v>
       </c>
       <c r="V91" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B92" t="s">
-        <v>520</v>
+        <v>477</v>
       </c>
       <c r="U92" t="s">
-        <v>768</v>
+        <v>718</v>
       </c>
       <c r="V92" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B93" t="s">
-        <v>598</v>
+        <v>555</v>
       </c>
       <c r="C93" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D93" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="U93" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="V93" t="s">
-        <v>358</v>
-      </c>
-      <c r="W93" s="2" t="s">
-        <v>152</v>
+        <v>347</v>
+      </c>
+      <c r="W93" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>599</v>
+        <v>556</v>
       </c>
       <c r="B94" t="s">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="C94" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D94" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E94" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G94" t="s">
         <v>110</v>
       </c>
       <c r="I94" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K94" t="s">
         <v>122</v>
       </c>
       <c r="M94" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O94" t="s">
         <v>122</v>
@@ -8027,24 +7953,24 @@
         <v>108</v>
       </c>
       <c r="U94" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="V94" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>572</v>
+        <v>529</v>
       </c>
       <c r="B95" t="s">
-        <v>576</v>
+        <v>533</v>
       </c>
       <c r="C95" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D95" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E95" t="s">
         <v>46</v>
@@ -8074,30 +8000,30 @@
         <v>17</v>
       </c>
       <c r="V95" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>573</v>
+        <v>530</v>
       </c>
       <c r="B96" t="s">
-        <v>577</v>
+        <v>534</v>
       </c>
       <c r="C96" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D96" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E96" t="s">
         <v>46</v>
       </c>
       <c r="F96" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G96" t="s">
         <v>122</v>
@@ -8124,27 +8050,27 @@
         <v>17</v>
       </c>
       <c r="V96" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="1:31" ht="75" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B97" t="s">
-        <v>519</v>
+        <v>476</v>
       </c>
       <c r="C97" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E97" t="s">
         <v>193</v>
       </c>
-      <c r="E97" t="s">
-        <v>201</v>
-      </c>
       <c r="F97" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G97" t="s">
         <v>110</v>
@@ -8189,33 +8115,33 @@
         <v>30</v>
       </c>
       <c r="U97" t="s">
-        <v>715</v>
+        <v>668</v>
       </c>
       <c r="V97" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>207</v>
+        <v>772</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="90" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B98" t="s">
-        <v>518</v>
+        <v>475</v>
       </c>
       <c r="C98" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E98" t="s">
         <v>46</v>
       </c>
       <c r="F98" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G98" t="s">
         <v>110</v>
@@ -8260,33 +8186,33 @@
         <v>30</v>
       </c>
       <c r="U98" t="s">
-        <v>717</v>
+        <v>670</v>
       </c>
       <c r="V98" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>207</v>
+        <v>772</v>
       </c>
     </row>
     <row r="99" spans="1:31" ht="75" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>596</v>
+        <v>553</v>
       </c>
       <c r="C99" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E99" t="s">
         <v>46</v>
       </c>
       <c r="F99" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G99" t="s">
         <v>110</v>
@@ -8331,33 +8257,33 @@
         <v>30</v>
       </c>
       <c r="U99" t="s">
-        <v>716</v>
+        <v>669</v>
       </c>
       <c r="V99" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>194</v>
+        <v>772</v>
       </c>
     </row>
     <row r="100" spans="1:31" ht="75" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B100" t="s">
-        <v>723</v>
+        <v>676</v>
       </c>
       <c r="C100" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E100" t="s">
         <v>46</v>
       </c>
       <c r="F100" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G100" t="s">
         <v>110</v>
@@ -8402,27 +8328,27 @@
         <v>30</v>
       </c>
       <c r="U100" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="V100" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="W100" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="101" spans="1:31" ht="60" x14ac:dyDescent="0.2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" ht="45" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>724</v>
+        <v>677</v>
       </c>
       <c r="B101" t="s">
-        <v>597</v>
+        <v>554</v>
       </c>
       <c r="C101" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E101" t="s">
         <v>46</v>
@@ -8470,13 +8396,13 @@
         <v>30</v>
       </c>
       <c r="U101" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="V101" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="W101" s="2" t="s">
-        <v>194</v>
+        <v>772</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.2">
@@ -8484,42 +8410,42 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>509</v>
+        <v>466</v>
       </c>
       <c r="U102" t="s">
         <v>0</v>
       </c>
       <c r="V102" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="X102" t="s">
-        <v>809</v>
+        <v>759</v>
       </c>
       <c r="Z102" t="s">
-        <v>788</v>
+        <v>738</v>
       </c>
       <c r="AA102" t="s">
-        <v>789</v>
+        <v>739</v>
       </c>
       <c r="AB102" t="s">
-        <v>785</v>
+        <v>735</v>
       </c>
       <c r="AC102" t="s">
-        <v>811</v>
+        <v>761</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="B103" t="s">
-        <v>733</v>
+        <v>683</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D103" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E103" t="s">
         <v>46</v>
@@ -8573,248 +8499,248 @@
         <v>0</v>
       </c>
       <c r="V103" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="W103" t="s">
-        <v>152</v>
+        <v>771</v>
       </c>
       <c r="X103" s="2" t="s">
-        <v>782</v>
+        <v>732</v>
       </c>
       <c r="Z103" t="s">
-        <v>783</v>
+        <v>733</v>
       </c>
       <c r="AA103" t="s">
-        <v>784</v>
+        <v>734</v>
       </c>
       <c r="AB103" t="s">
-        <v>785</v>
+        <v>735</v>
       </c>
       <c r="AC103" t="s">
-        <v>810</v>
+        <v>760</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>771</v>
+        <v>721</v>
       </c>
       <c r="B104" t="s">
-        <v>771</v>
+        <v>721</v>
       </c>
       <c r="U104" t="s">
         <v>0</v>
       </c>
       <c r="V104" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="X104" t="s">
-        <v>786</v>
+        <v>736</v>
       </c>
       <c r="Y104" t="s">
-        <v>787</v>
+        <v>737</v>
       </c>
       <c r="Z104" t="s">
-        <v>788</v>
+        <v>738</v>
       </c>
       <c r="AA104" t="s">
-        <v>789</v>
+        <v>739</v>
       </c>
       <c r="AB104" t="s">
-        <v>790</v>
+        <v>740</v>
       </c>
       <c r="AC104" t="s">
-        <v>812</v>
+        <v>762</v>
       </c>
       <c r="AD104" t="s">
-        <v>812</v>
+        <v>762</v>
       </c>
       <c r="AE104" t="s">
-        <v>812</v>
+        <v>762</v>
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>772</v>
+        <v>722</v>
       </c>
       <c r="B105" t="s">
-        <v>772</v>
+        <v>722</v>
       </c>
       <c r="U105" t="s">
         <v>0</v>
       </c>
       <c r="V105" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="X105" t="s">
-        <v>786</v>
+        <v>736</v>
       </c>
       <c r="Z105" t="s">
-        <v>788</v>
+        <v>738</v>
       </c>
       <c r="AA105" t="s">
-        <v>789</v>
+        <v>739</v>
       </c>
       <c r="AB105" t="s">
-        <v>791</v>
+        <v>741</v>
       </c>
       <c r="AC105" t="s">
-        <v>813</v>
+        <v>763</v>
       </c>
       <c r="AD105" t="s">
-        <v>813</v>
+        <v>763</v>
       </c>
       <c r="AE105" t="s">
-        <v>813</v>
+        <v>763</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>773</v>
+        <v>723</v>
       </c>
       <c r="B106" t="s">
-        <v>773</v>
+        <v>723</v>
       </c>
       <c r="U106" t="s">
         <v>0</v>
       </c>
       <c r="V106" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="X106" t="s">
-        <v>792</v>
+        <v>742</v>
       </c>
       <c r="Y106" t="s">
-        <v>793</v>
+        <v>743</v>
       </c>
       <c r="Z106" t="s">
-        <v>794</v>
+        <v>744</v>
       </c>
       <c r="AA106" t="s">
-        <v>795</v>
+        <v>745</v>
       </c>
       <c r="AB106" t="s">
-        <v>796</v>
+        <v>746</v>
       </c>
       <c r="AC106" t="s">
-        <v>814</v>
+        <v>764</v>
       </c>
       <c r="AD106" t="s">
-        <v>814</v>
+        <v>764</v>
       </c>
       <c r="AE106" t="s">
-        <v>814</v>
+        <v>764</v>
       </c>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>774</v>
+        <v>724</v>
       </c>
       <c r="B107" t="s">
-        <v>774</v>
+        <v>724</v>
       </c>
       <c r="U107" t="s">
         <v>0</v>
       </c>
       <c r="V107" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="X107" t="s">
-        <v>797</v>
+        <v>747</v>
       </c>
       <c r="Z107" t="s">
-        <v>798</v>
+        <v>748</v>
       </c>
       <c r="AA107" t="s">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="AB107" t="s">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="AC107" t="s">
-        <v>815</v>
+        <v>765</v>
       </c>
       <c r="AD107" t="s">
-        <v>815</v>
+        <v>765</v>
       </c>
       <c r="AE107" t="s">
-        <v>815</v>
+        <v>765</v>
       </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="B108" t="s">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="U108" t="s">
         <v>0</v>
       </c>
       <c r="V108" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="X108" t="s">
-        <v>801</v>
+        <v>751</v>
       </c>
       <c r="Z108" t="s">
-        <v>788</v>
+        <v>738</v>
       </c>
       <c r="AA108" t="s">
-        <v>789</v>
+        <v>739</v>
       </c>
       <c r="AB108" t="s">
-        <v>802</v>
+        <v>752</v>
       </c>
       <c r="AC108" t="s">
-        <v>816</v>
+        <v>766</v>
       </c>
       <c r="AD108" t="s">
-        <v>816</v>
+        <v>766</v>
       </c>
       <c r="AE108" t="s">
-        <v>816</v>
+        <v>766</v>
       </c>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>776</v>
+        <v>726</v>
       </c>
       <c r="B109" t="s">
-        <v>776</v>
+        <v>726</v>
       </c>
       <c r="U109" t="s">
         <v>0</v>
       </c>
       <c r="V109" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="X109" t="s">
-        <v>803</v>
+        <v>753</v>
       </c>
       <c r="Y109" t="s">
-        <v>804</v>
-      </c>
-      <c r="Z109" s="32" t="s">
-        <v>805</v>
+        <v>754</v>
+      </c>
+      <c r="Z109" s="30" t="s">
+        <v>755</v>
       </c>
       <c r="AA109" t="s">
-        <v>806</v>
+        <v>756</v>
       </c>
       <c r="AB109" t="s">
-        <v>807</v>
+        <v>757</v>
       </c>
       <c r="AC109" t="s">
-        <v>817</v>
+        <v>767</v>
       </c>
       <c r="AD109" t="s">
-        <v>817</v>
+        <v>767</v>
       </c>
       <c r="AE109" t="s">
-        <v>817</v>
+        <v>767</v>
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="Z110" s="32"/>
+      <c r="Z110" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:W100"/>
@@ -8828,65 +8754,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>738</v>
+        <v>773</v>
+      </c>
+      <c r="B1" t="s">
+        <v>688</v>
       </c>
       <c r="C1" t="s">
-        <v>739</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>775</v>
       </c>
       <c r="C2" t="s">
-        <v>820</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>777</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>778</v>
       </c>
       <c r="C3" t="s">
-        <v>819</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="B4" t="s">
-        <v>516</v>
+        <v>781</v>
       </c>
       <c r="C4" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>768</v>
+        <v>782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>783</v>
       </c>
       <c r="B5" t="s">
-        <v>517</v>
+        <v>784</v>
       </c>
       <c r="C5" t="s">
-        <v>818</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -8897,10 +8823,81 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>717</v>
+      </c>
+      <c r="B4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" t="s">
+        <v>768</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8913,1380 +8910,1244 @@
     <col min="6" max="6" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>761</v>
+        <v>711</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>738</v>
+        <v>688</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>762</v>
+        <v>712</v>
       </c>
       <c r="D1" t="s">
-        <v>763</v>
+        <v>713</v>
       </c>
       <c r="E1" t="s">
-        <v>737</v>
+        <v>687</v>
       </c>
       <c r="F1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>714</v>
+      </c>
+      <c r="G1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>603</v>
+        <v>560</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>605</v>
+        <v>562</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
         <v>9814446</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>604</v>
+        <v>561</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>606</v>
+        <v>563</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
         <v>1722826</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>607</v>
+        <v>564</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>608</v>
+        <v>565</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
         <v>367806</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>609</v>
+        <v>566</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>610</v>
+        <v>567</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8">
         <v>367806</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>611</v>
+        <v>568</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>612</v>
+        <v>569</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8">
         <v>367806</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>613</v>
+        <v>570</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>614</v>
+        <v>571</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8">
         <v>367806</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>615</v>
+        <v>574</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>616</v>
+        <v>575</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8">
-        <v>4229364</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>2337712</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>451</v>
+      </c>
       <c r="F8" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>617</v>
+        <v>364</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>618</v>
+        <v>576</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8">
         <v>2337712</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>377</v>
+        <v>577</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>619</v>
+        <v>578</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8">
         <v>2337712</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>492</v>
+        <v>362</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>620</v>
+        <v>579</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>621</v>
+        <v>580</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8">
-        <v>2337712</v>
+        <v>676822</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>622</v>
+        <v>581</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>623</v>
+        <v>582</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8">
-        <v>676822</v>
+        <v>1214830</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D15" s="8">
+        <v>341573</v>
+      </c>
+      <c r="E15" t="s">
+        <v>376</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="D16" s="8">
+        <v>183083</v>
+      </c>
+      <c r="E16" t="s">
+        <v>379</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="8">
+        <v>172022</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18">
+        <v>32941</v>
+      </c>
+      <c r="E18" t="s">
+        <v>379</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="8">
+        <v>110430</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8">
-        <v>1214830</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8">
-        <v>8500239</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="F19" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8">
+        <v>232503</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8">
-        <v>7072081</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="D20" s="8">
-        <v>341573</v>
-      </c>
-      <c r="E20" t="s">
-        <v>394</v>
-      </c>
       <c r="F20" s="4" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="D21" t="s">
-        <v>397</v>
-      </c>
-      <c r="E21" t="s">
-        <v>398</v>
+        <v>604</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8">
+        <v>28972</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>641</v>
+      <c r="A22" s="6" t="s">
+        <v>456</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" t="s">
-        <v>399</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>398</v>
+        <v>456</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="14">
+        <v>137274</v>
+      </c>
+      <c r="E22" t="s">
+        <v>382</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>643</v>
+        <v>605</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>644</v>
+        <v>607</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" t="s">
-        <v>400</v>
-      </c>
-      <c r="E23" t="s">
-        <v>398</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>395</v>
-      </c>
+      <c r="D23" s="14">
+        <v>137274</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="8">
-        <v>110430</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>394</v>
+      <c r="A24" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="14">
+        <v>137274</v>
+      </c>
+      <c r="E24" t="s">
+        <v>382</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>647</v>
+        <v>609</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8">
-        <v>232503</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>401</v>
+        <v>2577563</v>
+      </c>
+      <c r="E25" t="s">
+        <v>384</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>649</v>
+        <v>611</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>650</v>
+        <v>612</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8">
-        <v>28972</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>395</v>
-      </c>
+        <v>2577563</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="E27" t="s">
-        <v>404</v>
+      <c r="A27" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="8">
+        <v>45734</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>653</v>
+        <v>616</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="F28" s="4"/>
+      <c r="D28" s="8">
+        <v>634025</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="E29" t="s">
-        <v>404</v>
+      <c r="A29" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="8">
+        <v>12549</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>656</v>
+        <v>620</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E30" t="s">
-        <v>407</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>395</v>
+      <c r="D30" s="8">
+        <v>1665254</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>657</v>
+        <v>788</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>658</v>
+        <v>621</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="F31" s="4"/>
+      <c r="D31" s="8">
+        <v>1665254</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>659</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>660</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="8">
-        <v>45734</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="A32" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="17">
+        <v>30000</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="17">
+        <v>14000</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="17">
+        <v>57000</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8">
-        <v>634025</v>
-      </c>
-      <c r="E33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>663</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="8">
-        <v>12549</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>665</v>
+        <v>395</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>666</v>
+        <v>395</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" t="s">
-        <v>410</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>499</v>
+      <c r="D35" s="17">
+        <v>967</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>667</v>
+        <v>622</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>668</v>
+        <v>623</v>
       </c>
       <c r="C36" s="7"/>
-      <c r="D36" t="s">
-        <v>412</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>500</v>
+      <c r="D36" s="32">
+        <v>5377</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>415</v>
+        <v>624</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>415</v>
+        <v>625</v>
       </c>
       <c r="C37" s="7"/>
-      <c r="D37" s="18" t="s">
-        <v>416</v>
+      <c r="D37" s="32">
+        <v>1880</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>419</v>
+        <v>626</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>419</v>
+        <v>627</v>
       </c>
       <c r="C38" s="7"/>
-      <c r="D38" s="18" t="s">
-        <v>420</v>
+      <c r="D38" s="17">
+        <v>9800</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>421</v>
+        <v>628</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>421</v>
+        <v>629</v>
       </c>
       <c r="C39" s="7"/>
-      <c r="D39" s="18" t="s">
-        <v>422</v>
+      <c r="D39" s="17">
+        <v>260</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="17">
+        <v>74000</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="E41" t="s">
+        <v>399</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="E42" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="E43" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="E44" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="E45" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="E46" t="s">
+        <v>409</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="E47" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="E48" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="E49" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="E50" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="E51" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="18" t="s">
+      <c r="C52" s="5"/>
+      <c r="D52" s="25">
+        <v>1998182</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="18" t="s">
+      <c r="B53" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="18" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="26">
+        <v>56882</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="B54" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="27">
+        <v>3184</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="18" t="s">
+      <c r="B55" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="18" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="26">
+        <v>14963449</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="18" t="s">
+      <c r="F55" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="E46" t="s">
-        <v>435</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="E47" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="E48" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="E49" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="E50" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="E51" t="s">
-        <v>445</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="E52" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
-        <v>448</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>448</v>
-      </c>
-      <c r="C53" s="25"/>
-      <c r="E53" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="C54" s="25"/>
-      <c r="E54" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="C55" s="25"/>
-      <c r="E55" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="C56" s="23"/>
+      <c r="B56" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="27">
+        <v>6944</v>
+      </c>
       <c r="E56" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>367</v>
+        <v>421</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="27">
-        <v>1998182</v>
+        <v>23995</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>459</v>
+        <v>421</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="27">
-        <v>1998182</v>
+        <v>6575</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="28">
-        <v>56882</v>
+      <c r="D59" s="27">
+        <v>9775</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="28">
-        <v>56882</v>
+      <c r="D60" s="27">
+        <v>7264</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="29">
-        <v>3184</v>
+      <c r="D61" s="27">
+        <v>22114</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>687</v>
-      </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="29">
-        <v>3184</v>
+      <c r="A62" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="27">
+        <v>10354</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>469</v>
+        <v>633</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>470</v>
+        <v>634</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="28">
-        <v>14963449</v>
+      <c r="D63" s="27">
+        <v>274</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>473</v>
+        <v>635</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="29">
-        <v>6944</v>
+      <c r="D64" s="27">
+        <v>5741</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>474</v>
+        <v>678</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="29">
-        <v>23995</v>
+      <c r="D65" s="27">
+        <v>7731871</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>475</v>
+        <v>680</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>476</v>
+        <v>681</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="29">
-        <v>6575</v>
+      <c r="D66" s="27">
+        <v>7073228</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>478</v>
+        <v>636</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="29">
-        <v>9775</v>
+      <c r="D67" s="27">
+        <v>65314</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>479</v>
+        <v>388</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="29">
-        <v>7264</v>
-      </c>
+      <c r="D68" s="27"/>
       <c r="E68" s="4" t="s">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>469</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>482</v>
+        <v>637</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="29">
-        <v>22114</v>
+      <c r="D69" s="27">
+        <v>1179391</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>484</v>
+        <v>638</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="29">
-        <v>10354</v>
+      <c r="D70" s="27">
+        <v>173531</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="29">
-        <v>274</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="29">
-        <v>5741</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="29">
-        <v>7731871</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="29">
-        <v>7073228</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="29">
-        <v>65314</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="29">
-        <v>1179391</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="29">
-        <v>173531</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F78"/>
+  <autoFilter ref="A1:F70"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -10305,291 +10166,291 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>758</v>
+        <v>708</v>
       </c>
       <c r="B1" t="s">
-        <v>738</v>
+        <v>688</v>
       </c>
       <c r="C1" t="s">
-        <v>757</v>
+        <v>707</v>
       </c>
       <c r="D1" t="s">
-        <v>765</v>
+        <v>715</v>
       </c>
       <c r="E1" t="s">
-        <v>766</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>688</v>
+        <v>641</v>
       </c>
       <c r="B2" t="s">
-        <v>689</v>
+        <v>642</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>690</v>
+        <v>643</v>
       </c>
       <c r="B3" t="s">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>692</v>
+        <v>645</v>
       </c>
       <c r="B4" t="s">
-        <v>693</v>
+        <v>646</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E4" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>694</v>
+        <v>647</v>
       </c>
       <c r="B5" t="s">
-        <v>695</v>
+        <v>648</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D5" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E5" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>696</v>
+        <v>649</v>
       </c>
       <c r="B6" t="s">
-        <v>697</v>
+        <v>650</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E6" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="B7" t="s">
-        <v>699</v>
+        <v>652</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>700</v>
+        <v>653</v>
       </c>
       <c r="B8" t="s">
-        <v>701</v>
+        <v>654</v>
       </c>
       <c r="C8" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>702</v>
+        <v>655</v>
       </c>
       <c r="B9" t="s">
-        <v>703</v>
+        <v>656</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D9" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E9" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>704</v>
+        <v>657</v>
       </c>
       <c r="B10" t="s">
-        <v>705</v>
+        <v>658</v>
       </c>
       <c r="C10" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E10" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>706</v>
+        <v>659</v>
       </c>
       <c r="B11" t="s">
-        <v>707</v>
+        <v>660</v>
       </c>
       <c r="C11" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D11" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E11" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C12" t="s">
-        <v>770</v>
+        <v>720</v>
       </c>
       <c r="D12" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="E12" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C13" t="s">
-        <v>767</v>
+        <v>717</v>
       </c>
       <c r="D13" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E13" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C14" t="s">
-        <v>767</v>
+        <v>717</v>
       </c>
       <c r="D14" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E14" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B15" t="s">
-        <v>708</v>
+        <v>661</v>
       </c>
       <c r="C15" t="s">
-        <v>767</v>
+        <v>717</v>
       </c>
       <c r="D15" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E15" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B16" t="s">
-        <v>709</v>
+        <v>662</v>
       </c>
       <c r="C16" t="s">
-        <v>767</v>
+        <v>717</v>
       </c>
       <c r="D16" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E16" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>710</v>
+        <v>663</v>
       </c>
       <c r="B17" t="s">
-        <v>711</v>
+        <v>664</v>
       </c>
       <c r="C17" t="s">
-        <v>770</v>
+        <v>720</v>
       </c>
       <c r="D17" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E17" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -10599,11 +10460,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -10611,73 +10472,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>737</v>
+        <v>687</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>738</v>
+        <v>688</v>
       </c>
       <c r="C1" t="s">
-        <v>739</v>
+        <v>689</v>
       </c>
       <c r="D1" t="s">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="E1" t="s">
-        <v>741</v>
+        <v>691</v>
       </c>
       <c r="F1" t="s">
-        <v>742</v>
+        <v>692</v>
       </c>
       <c r="G1" t="s">
-        <v>743</v>
+        <v>693</v>
       </c>
       <c r="H1" t="s">
-        <v>745</v>
+        <v>695</v>
       </c>
       <c r="I1" t="s">
-        <v>744</v>
+        <v>694</v>
       </c>
       <c r="J1" t="s">
-        <v>746</v>
+        <v>696</v>
       </c>
       <c r="K1" t="s">
-        <v>747</v>
+        <v>697</v>
       </c>
       <c r="L1" t="s">
-        <v>748</v>
+        <v>698</v>
       </c>
       <c r="M1" t="s">
-        <v>749</v>
+        <v>699</v>
       </c>
       <c r="N1" t="s">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="O1" t="s">
-        <v>751</v>
+        <v>701</v>
       </c>
       <c r="P1" t="s">
-        <v>752</v>
+        <v>702</v>
       </c>
       <c r="Q1" t="s">
-        <v>753</v>
+        <v>703</v>
       </c>
       <c r="R1" t="s">
-        <v>754</v>
+        <v>704</v>
       </c>
       <c r="S1" t="s">
-        <v>755</v>
+        <v>705</v>
       </c>
       <c r="T1" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>757</v>
+        <v>707</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>758</v>
+        <v>708</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>759</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -10686,51 +10547,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>367</v>
+        <v>572</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>368</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="C2" s="7"/>
       <c r="D2" s="8">
-        <v>39011882</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4229364</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>369</v>
+        <v>583</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>369</v>
+        <v>584</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
-        <v>16134442</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>367</v>
+        <v>8500239</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>601</v>
+        <v>558</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>602</v>
+        <v>559</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
@@ -10738,120 +10627,160 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="D5" s="8">
         <v>1665254</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" t="s">
-        <v>414</v>
+      <c r="D6" s="8">
+        <v>439250</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="8">
+        <v>108988</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8">
+        <v>7072081</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="26" t="s">
-        <v>456</v>
+      <c r="F8" s="4" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D9" s="8">
         <v>4805139</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>385</v>
+        <v>787</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>385</v>
+        <v>588</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="E10" t="s">
-        <v>729</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>367</v>
+      <c r="D10" s="11">
+        <v>184275</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8">
-        <v>15572320</v>
-      </c>
-      <c r="E11" t="s">
-        <v>730</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>367</v>
+      <c r="A11" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="26">
+        <v>14963449</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="25">
+        <v>1998182</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/backend/resource/neo4j2.xlsx
+++ b/backend/resource/neo4j2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28140" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
@@ -3915,8 +3915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="T26" workbookViewId="0">
+      <selection activeCell="W65" sqref="W65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8754,8 +8754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8896,7 +8896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/backend/resource/neo4j2.xlsx
+++ b/backend/resource/neo4j2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28140" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28140" windowHeight="17540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="790">
   <si>
     <t>总馆北区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>学位论文阅览室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字共享空间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -568,10 +564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新方志阅览室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年鉴阅览室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,10 +597,6 @@
   </si>
   <si>
     <t>总馆北区_F2_工具书区_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总馆北区_F1_中文图书阅览区_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1798,10 +1786,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中文期刊区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中文报纸区，中文期刊区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1994,10 +1978,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缩微文献阅览室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微缩阅览区，缩微阅览室，缩微文献阅览室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2162,10 +2142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中文书阅览室，中文图书阅览室，中文图书阅览区，总馆北区中文图书区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中文图书阅览区，总馆北区中文图书区，中文书阅览室，中文图书阅览室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2206,10 +2182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>少年儿童馆主题活动区，少儿主题活动区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>还书的地方，还书的机器，24小时（自助）还书处，还书处</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2238,10 +2210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通中文书，平装书，中文_普通图书（含民国平装书），中文_普通图书，中文普通图书，普通图书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>古书，古籍，线装书，中文_普通古籍，中文普通古籍，中文_普通古籍（含民国线装书），普通古籍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2338,10 +2306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>香港中文期刊，澳门中文期刊，台湾中文期刊，海外中文期刊，中文_港澳台及海外期刊，中文港澳台及海外期刊，港澳台及海外期刊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汉语报纸，中国报纸，中文报纸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2350,10 +2314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>香港中文报纸，澳门中文报纸，台湾中文报纸，海外中文报纸，中文_港澳台及海外报纸，港澳台及海外报纸，中文港澳台及海外报纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>善本（含古籍善本、新善本及外文善本）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2695,10 +2655,6 @@
   </si>
   <si>
     <t>少年儿童馆数字资源体验区，少儿数字资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少年儿童馆主题活动区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3315,10 +3271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国家图书馆少年儿童馆读者卡，读者卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通行证</t>
     <rPh sb="0" eb="1">
       <t>tong xing z</t>
@@ -3371,13 +3323,6 @@
   </si>
   <si>
     <t>少年儿童图书馆读者卡</t>
-    <rPh sb="7" eb="8">
-      <t>du zhe ka</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少年儿童图书馆读者卡</t>
   </si>
   <si>
     <t>不满13岁</t>
@@ -3406,6 +3351,58 @@
   </si>
   <si>
     <t>实体资源</t>
+  </si>
+  <si>
+    <t>少年儿童馆主题活动区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年儿童馆读者卡，读者卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年儿童馆读者卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年儿童馆主题活动区，少儿主题活动区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新方志阅览室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文期刊区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录音带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文史资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港中文报纸，澳门中文报纸，台湾中文报纸，海外中文报纸，中文_港澳台及海外报纸，港澳台及海外报纸，中文港澳台及海外报纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家谱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总馆北区_F1_中文图书阅览区_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通中文书，平装书，中文_普通图书（含民国平装书），中文_普通图书，中文普通图书，普通图书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港中文期刊，澳门中文期刊，台湾中文期刊，海外中文期刊，中文_港澳台及海外期刊，中文港澳台及海外期刊，港澳台及海外期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3915,8 +3912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE110"/>
   <sheetViews>
-    <sheetView topLeftCell="T26" workbookViewId="0">
-      <selection activeCell="W65" sqref="W65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3947,162 +3944,162 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F1" t="s">
+        <v>681</v>
+      </c>
+      <c r="G1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H1" t="s">
+        <v>684</v>
+      </c>
+      <c r="I1" t="s">
+        <v>683</v>
+      </c>
+      <c r="J1" t="s">
+        <v>685</v>
+      </c>
+      <c r="K1" t="s">
+        <v>686</v>
+      </c>
+      <c r="L1" t="s">
         <v>687</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="M1" t="s">
         <v>688</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>689</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
         <v>690</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
         <v>691</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
         <v>692</v>
       </c>
-      <c r="G1" t="s">
+      <c r="R1" t="s">
         <v>693</v>
       </c>
-      <c r="H1" t="s">
+      <c r="S1" t="s">
+        <v>694</v>
+      </c>
+      <c r="T1" t="s">
         <v>695</v>
       </c>
-      <c r="I1" t="s">
-        <v>694</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="U1" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="K1" t="s">
+      <c r="V1" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="L1" t="s">
+      <c r="W1" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="M1" t="s">
-        <v>699</v>
-      </c>
-      <c r="N1" t="s">
-        <v>700</v>
-      </c>
-      <c r="O1" t="s">
-        <v>701</v>
-      </c>
-      <c r="P1" t="s">
-        <v>702</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>703</v>
-      </c>
-      <c r="R1" t="s">
-        <v>704</v>
-      </c>
-      <c r="S1" t="s">
-        <v>705</v>
-      </c>
-      <c r="T1" t="s">
-        <v>706</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>709</v>
-      </c>
       <c r="X1" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="Y1" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="Z1" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="AA1" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="AB1" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="AC1" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="AD1" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" t="s">
         <v>105</v>
       </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" t="s">
         <v>107</v>
       </c>
-      <c r="H2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>108</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>109</v>
       </c>
-      <c r="S2" t="s">
-        <v>110</v>
-      </c>
       <c r="T2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U2" t="s">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="W2" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -4110,183 +4107,183 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="U3" t="s">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="U4" t="s">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q5" t="s">
         <v>107</v>
       </c>
-      <c r="I5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K5" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M5" t="s">
-        <v>120</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="R5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S5" t="s">
         <v>121</v>
       </c>
-      <c r="O5" t="s">
-        <v>111</v>
-      </c>
-      <c r="P5" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>108</v>
-      </c>
-      <c r="R5" t="s">
-        <v>117</v>
-      </c>
-      <c r="S5" t="s">
-        <v>122</v>
-      </c>
       <c r="T5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U5" t="s">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="W5" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="U6" t="s">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>787</v>
       </c>
       <c r="B7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" t="s">
         <v>107</v>
       </c>
-      <c r="H7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="R7" t="s">
+        <v>116</v>
+      </c>
+      <c r="S7" t="s">
         <v>121</v>
       </c>
-      <c r="O7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>108</v>
-      </c>
-      <c r="R7" t="s">
-        <v>117</v>
-      </c>
-      <c r="S7" t="s">
-        <v>122</v>
-      </c>
       <c r="T7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U7" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="V7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="W7" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -4294,91 +4291,91 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="U8" t="s">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="U9" t="s">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B10" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U10" t="s">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="U11" t="s">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -4386,13 +4383,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="U12" t="s">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -4400,13 +4397,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="U13" t="s">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -4414,202 +4411,202 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="U14" t="s">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" t="s">
+        <v>106</v>
+      </c>
+      <c r="M15" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q15" t="s">
         <v>107</v>
       </c>
-      <c r="H15" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" t="s">
-        <v>120</v>
-      </c>
-      <c r="J15" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" t="s">
-        <v>107</v>
-      </c>
-      <c r="M15" t="s">
-        <v>120</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="R15" t="s">
+        <v>116</v>
+      </c>
+      <c r="S15" t="s">
         <v>121</v>
       </c>
-      <c r="O15" t="s">
-        <v>111</v>
-      </c>
-      <c r="P15" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>108</v>
-      </c>
-      <c r="R15" t="s">
-        <v>117</v>
-      </c>
-      <c r="S15" t="s">
-        <v>122</v>
-      </c>
       <c r="T15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U15" t="s">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="W15" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N16" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q16" t="s">
         <v>107</v>
       </c>
-      <c r="H16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" t="s">
-        <v>120</v>
-      </c>
-      <c r="J16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" t="s">
-        <v>120</v>
-      </c>
-      <c r="L16" t="s">
-        <v>107</v>
-      </c>
-      <c r="M16" t="s">
-        <v>120</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="R16" t="s">
+        <v>116</v>
+      </c>
+      <c r="S16" t="s">
         <v>121</v>
       </c>
-      <c r="O16" t="s">
-        <v>111</v>
-      </c>
-      <c r="P16" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>108</v>
-      </c>
-      <c r="R16" t="s">
-        <v>117</v>
-      </c>
-      <c r="S16" t="s">
-        <v>122</v>
-      </c>
       <c r="T16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U16" t="s">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="W16" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U17" t="s">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -4620,60 +4617,60 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U18" t="s">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" t="s">
+        <v>541</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" t="s">
         <v>208</v>
       </c>
-      <c r="B19" t="s">
-        <v>547</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="G19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" t="s">
         <v>160</v>
       </c>
-      <c r="D19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" t="s">
-        <v>162</v>
-      </c>
-      <c r="K19" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" t="s">
-        <v>163</v>
-      </c>
       <c r="O19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U19" t="s">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -4684,145 +4681,145 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U20" t="s">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" t="s">
+        <v>542</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
         <v>151</v>
       </c>
-      <c r="B21" t="s">
-        <v>548</v>
-      </c>
-      <c r="C21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
-        <v>154</v>
-      </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" t="s">
+        <v>123</v>
+      </c>
+      <c r="O21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" t="s">
         <v>124</v>
       </c>
-      <c r="K21" t="s">
-        <v>110</v>
-      </c>
-      <c r="M21" t="s">
-        <v>124</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="S21" t="s">
         <v>109</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>125</v>
-      </c>
-      <c r="S21" t="s">
-        <v>110</v>
       </c>
       <c r="U21" t="s">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B22" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U22" t="s">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B23" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="U23" t="s">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
@@ -4830,13 +4827,13 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="U24" t="s">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
@@ -4844,143 +4841,143 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="U25" t="s">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M26" t="s">
+        <v>119</v>
+      </c>
+      <c r="N26" t="s">
+        <v>120</v>
+      </c>
+      <c r="O26" t="s">
+        <v>110</v>
+      </c>
+      <c r="P26" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q26" t="s">
         <v>107</v>
       </c>
-      <c r="H26" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" t="s">
-        <v>107</v>
-      </c>
-      <c r="K26" t="s">
-        <v>120</v>
-      </c>
-      <c r="L26" t="s">
-        <v>107</v>
-      </c>
-      <c r="M26" t="s">
-        <v>120</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="R26" t="s">
+        <v>116</v>
+      </c>
+      <c r="S26" t="s">
         <v>121</v>
       </c>
-      <c r="O26" t="s">
-        <v>111</v>
-      </c>
-      <c r="P26" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>108</v>
-      </c>
-      <c r="R26" t="s">
-        <v>117</v>
-      </c>
-      <c r="S26" t="s">
-        <v>122</v>
-      </c>
       <c r="T26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U26" t="s">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="W26" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="U27" t="s">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B28" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U28" t="s">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
@@ -4988,13 +4985,13 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="U29" t="s">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -5002,84 +4999,84 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="U30" t="s">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B31" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" t="s">
         <v>176</v>
       </c>
-      <c r="D31" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" t="s">
-        <v>179</v>
-      </c>
       <c r="G31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U31" t="s">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="W31" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
@@ -5087,1342 +5084,1342 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F32" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" t="s">
-        <v>293</v>
-      </c>
-      <c r="F32" t="s">
-        <v>45</v>
-      </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" t="s">
         <v>109</v>
       </c>
-      <c r="I32" t="s">
-        <v>122</v>
-      </c>
-      <c r="J32" t="s">
-        <v>110</v>
-      </c>
       <c r="K32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U32" t="s">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="W32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B33" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G33" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" t="s">
+        <v>119</v>
+      </c>
+      <c r="L33" t="s">
+        <v>106</v>
+      </c>
+      <c r="M33" t="s">
+        <v>119</v>
+      </c>
+      <c r="N33" t="s">
+        <v>120</v>
+      </c>
+      <c r="O33" t="s">
+        <v>110</v>
+      </c>
+      <c r="P33" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q33" t="s">
         <v>107</v>
       </c>
-      <c r="H33" t="s">
-        <v>107</v>
-      </c>
-      <c r="I33" t="s">
-        <v>120</v>
-      </c>
-      <c r="J33" t="s">
-        <v>107</v>
-      </c>
-      <c r="K33" t="s">
-        <v>120</v>
-      </c>
-      <c r="L33" t="s">
-        <v>107</v>
-      </c>
-      <c r="M33" t="s">
-        <v>120</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="R33" t="s">
+        <v>116</v>
+      </c>
+      <c r="S33" t="s">
         <v>121</v>
       </c>
-      <c r="O33" t="s">
-        <v>111</v>
-      </c>
-      <c r="P33" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>108</v>
-      </c>
-      <c r="R33" t="s">
-        <v>117</v>
-      </c>
-      <c r="S33" t="s">
-        <v>122</v>
-      </c>
       <c r="T33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U33" t="s">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="W33" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>452</v>
+        <v>782</v>
       </c>
       <c r="B34" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" t="s">
+        <v>119</v>
+      </c>
+      <c r="L34" t="s">
+        <v>106</v>
+      </c>
+      <c r="M34" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O34" t="s">
+        <v>110</v>
+      </c>
+      <c r="P34" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q34" t="s">
         <v>107</v>
       </c>
-      <c r="H34" t="s">
-        <v>107</v>
-      </c>
-      <c r="I34" t="s">
-        <v>120</v>
-      </c>
-      <c r="J34" t="s">
-        <v>107</v>
-      </c>
-      <c r="K34" t="s">
-        <v>120</v>
-      </c>
-      <c r="L34" t="s">
-        <v>107</v>
-      </c>
-      <c r="M34" t="s">
-        <v>120</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="R34" t="s">
+        <v>116</v>
+      </c>
+      <c r="S34" t="s">
         <v>121</v>
       </c>
-      <c r="O34" t="s">
-        <v>111</v>
-      </c>
-      <c r="P34" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>108</v>
-      </c>
-      <c r="R34" t="s">
-        <v>117</v>
-      </c>
-      <c r="S34" t="s">
-        <v>122</v>
-      </c>
       <c r="T34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U34" t="s">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="W34" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>418</v>
       </c>
       <c r="B35" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U35" t="s">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="W35" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" t="s">
+        <v>109</v>
+      </c>
+      <c r="K36" t="s">
+        <v>121</v>
+      </c>
+      <c r="L36" t="s">
+        <v>116</v>
+      </c>
+      <c r="M36" t="s">
+        <v>109</v>
+      </c>
+      <c r="N36" t="s">
+        <v>125</v>
+      </c>
+      <c r="O36" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>107</v>
+      </c>
+      <c r="R36" t="s">
         <v>108</v>
       </c>
-      <c r="H36" t="s">
-        <v>110</v>
-      </c>
-      <c r="I36" t="s">
-        <v>110</v>
-      </c>
-      <c r="J36" t="s">
-        <v>110</v>
-      </c>
-      <c r="K36" t="s">
-        <v>122</v>
-      </c>
-      <c r="L36" t="s">
-        <v>117</v>
-      </c>
-      <c r="M36" t="s">
-        <v>110</v>
-      </c>
-      <c r="N36" t="s">
-        <v>126</v>
-      </c>
-      <c r="O36" t="s">
-        <v>110</v>
-      </c>
-      <c r="P36" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>108</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
+        <v>107</v>
+      </c>
+      <c r="T36" t="s">
         <v>109</v>
-      </c>
-      <c r="S36" t="s">
-        <v>108</v>
-      </c>
-      <c r="T36" t="s">
-        <v>110</v>
       </c>
       <c r="U36" t="s">
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="W36" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B37" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="U37" t="s">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B38" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U38" t="s">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="B39" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U39" t="s">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B40" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="U40" t="s">
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="U41" t="s">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B42" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U42" t="s">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B43" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U43" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="V43" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="U44" t="s">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" t="s">
         <v>59</v>
       </c>
-      <c r="D45" t="s">
-        <v>202</v>
-      </c>
-      <c r="E45" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" t="s">
-        <v>60</v>
-      </c>
       <c r="G45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V45" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B46" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" t="s">
+        <v>121</v>
+      </c>
+      <c r="K46" t="s">
+        <v>121</v>
+      </c>
+      <c r="M46" t="s">
+        <v>107</v>
+      </c>
+      <c r="O46" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q46" t="s">
         <v>127</v>
       </c>
-      <c r="I46" t="s">
-        <v>122</v>
-      </c>
-      <c r="K46" t="s">
-        <v>122</v>
-      </c>
-      <c r="M46" t="s">
-        <v>108</v>
-      </c>
-      <c r="O46" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>128</v>
-      </c>
       <c r="S46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V46" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" t="s">
+        <v>215</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F47" t="s">
         <v>101</v>
       </c>
-      <c r="D47" t="s">
-        <v>218</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F47" t="s">
-        <v>102</v>
-      </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V47" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="W47" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B48" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V48" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="W48" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V49" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="W49" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B50" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V50" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="W50" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="45" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V51" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="W51" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B52" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C52" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D52" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I52" t="s">
+        <v>107</v>
+      </c>
+      <c r="K52" t="s">
+        <v>126</v>
+      </c>
+      <c r="M52" t="s">
+        <v>126</v>
+      </c>
+      <c r="O52" t="s">
         <v>108</v>
       </c>
-      <c r="K52" t="s">
-        <v>127</v>
-      </c>
-      <c r="M52" t="s">
-        <v>127</v>
-      </c>
-      <c r="O52" t="s">
+      <c r="Q52" t="s">
         <v>109</v>
       </c>
-      <c r="Q52" t="s">
-        <v>110</v>
-      </c>
       <c r="S52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V52" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" t="s">
+        <v>503</v>
+      </c>
+      <c r="C53" t="s">
         <v>130</v>
       </c>
-      <c r="B53" t="s">
-        <v>508</v>
-      </c>
-      <c r="C53" t="s">
-        <v>131</v>
-      </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F53" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V53" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F54" t="s">
         <v>96</v>
       </c>
-      <c r="D54" t="s">
-        <v>225</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F54" t="s">
-        <v>97</v>
-      </c>
       <c r="G54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V54" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>502</v>
+      </c>
+      <c r="C55" t="s">
         <v>98</v>
       </c>
-      <c r="B55" t="s">
-        <v>507</v>
-      </c>
-      <c r="C55" t="s">
-        <v>99</v>
-      </c>
       <c r="D55" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F55" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V55" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V56" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="W56" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AD56">
         <v>1</v>
@@ -6430,1979 +6427,1979 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B57" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>211</v>
+      </c>
+      <c r="E57" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" t="s">
         <v>66</v>
       </c>
-      <c r="D57" t="s">
-        <v>214</v>
-      </c>
-      <c r="E57" t="s">
-        <v>76</v>
-      </c>
-      <c r="F57" t="s">
-        <v>67</v>
-      </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V57" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="W57" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" t="s">
         <v>85</v>
       </c>
-      <c r="D58" t="s">
-        <v>237</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" t="s">
-        <v>86</v>
-      </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V58" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="W58" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>501</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" t="s">
+        <v>227</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F59" t="s">
         <v>83</v>
       </c>
-      <c r="D59" t="s">
-        <v>230</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F59" t="s">
-        <v>84</v>
-      </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V59" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="W59" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B60" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F60" t="s">
         <v>69</v>
       </c>
-      <c r="D60" t="s">
-        <v>232</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F60" t="s">
-        <v>70</v>
-      </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V60" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="W60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>230</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F61" t="s">
         <v>73</v>
       </c>
-      <c r="D61" t="s">
-        <v>233</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F61" t="s">
-        <v>74</v>
-      </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V61" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="W61" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B62" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>232</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F62" t="s">
         <v>71</v>
       </c>
-      <c r="D62" t="s">
-        <v>235</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F62" t="s">
-        <v>72</v>
-      </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V62" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="W62" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" t="s">
+        <v>239</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F63" t="s">
         <v>93</v>
       </c>
-      <c r="D63" t="s">
-        <v>242</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F63" t="s">
-        <v>94</v>
-      </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V63" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V64" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E65" t="s">
-        <v>46</v>
-      </c>
-      <c r="F65" t="s">
-        <v>65</v>
-      </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V65" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="W65" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>781</v>
       </c>
       <c r="B66" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" t="s">
         <v>64</v>
       </c>
-      <c r="D66" t="s">
-        <v>245</v>
-      </c>
-      <c r="E66" t="s">
-        <v>46</v>
-      </c>
-      <c r="F66" t="s">
-        <v>65</v>
-      </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V66" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="W66" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>241</v>
+      </c>
+      <c r="E67" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" t="s">
         <v>64</v>
       </c>
-      <c r="D67" t="s">
-        <v>244</v>
-      </c>
-      <c r="E67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F67" t="s">
-        <v>65</v>
-      </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V67" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="W67" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F68" t="s">
         <v>87</v>
       </c>
-      <c r="D68" t="s">
-        <v>247</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F68" t="s">
-        <v>88</v>
-      </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V68" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="W68" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>245</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" t="s">
         <v>89</v>
       </c>
-      <c r="D69" t="s">
-        <v>248</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F69" t="s">
-        <v>90</v>
-      </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V69" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="W69" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B70" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V70" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V71" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B72" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="U72" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="V72" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B73" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="U73" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="V73" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B74" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="U74" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="V74" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B75" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="U75" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="V75" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B76" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="U76" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="V76" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B77" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="U77" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="V77" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="B78" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D78" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F78" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O78" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="U78" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="V78" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B79" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="U79" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="V79" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B80" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="U80" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="V80" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B81" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="U81" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="V81" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B82" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="U82" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="V82" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U83" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="V83" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="W83" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B84" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="U84" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="V84" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B85" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="U85" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="V85" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B86" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="C86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U86" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="V86" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="W86" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B87" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U87" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="V87" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="W87" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B88" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F88" t="s">
+        <v>55</v>
+      </c>
+      <c r="G88" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" t="s">
+        <v>29</v>
+      </c>
+      <c r="J88" t="s">
+        <v>29</v>
+      </c>
+      <c r="K88" t="s">
+        <v>29</v>
+      </c>
+      <c r="L88" t="s">
+        <v>29</v>
+      </c>
+      <c r="M88" t="s">
+        <v>29</v>
+      </c>
+      <c r="N88" t="s">
+        <v>29</v>
+      </c>
+      <c r="O88" t="s">
+        <v>29</v>
+      </c>
+      <c r="P88" t="s">
+        <v>29</v>
+      </c>
+      <c r="U88" t="s">
+        <v>707</v>
+      </c>
+      <c r="V88" t="s">
+        <v>352</v>
+      </c>
+      <c r="W88" t="s">
         <v>253</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F88" t="s">
-        <v>56</v>
-      </c>
-      <c r="G88" t="s">
-        <v>30</v>
-      </c>
-      <c r="H88" t="s">
-        <v>30</v>
-      </c>
-      <c r="I88" t="s">
-        <v>30</v>
-      </c>
-      <c r="J88" t="s">
-        <v>30</v>
-      </c>
-      <c r="K88" t="s">
-        <v>30</v>
-      </c>
-      <c r="L88" t="s">
-        <v>30</v>
-      </c>
-      <c r="M88" t="s">
-        <v>30</v>
-      </c>
-      <c r="N88" t="s">
-        <v>30</v>
-      </c>
-      <c r="O88" t="s">
-        <v>30</v>
-      </c>
-      <c r="P88" t="s">
-        <v>30</v>
-      </c>
-      <c r="U88" t="s">
-        <v>718</v>
-      </c>
-      <c r="V88" t="s">
-        <v>355</v>
-      </c>
-      <c r="W88" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B89" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="U89" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="V89" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B90" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="U90" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="V90" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B91" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="U91" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="V91" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B92" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="U92" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="V92" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" t="s">
+        <v>548</v>
+      </c>
+      <c r="C93" t="s">
+        <v>202</v>
+      </c>
+      <c r="D93" t="s">
         <v>203</v>
       </c>
-      <c r="B93" t="s">
-        <v>555</v>
-      </c>
-      <c r="C93" t="s">
-        <v>205</v>
-      </c>
-      <c r="D93" t="s">
-        <v>206</v>
-      </c>
       <c r="U93" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="V93" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="W93" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B94" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C94" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D94" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E94" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I94" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M94" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U94" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="V94" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B95" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C95" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D95" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I95" t="s">
+        <v>107</v>
+      </c>
+      <c r="K95" t="s">
+        <v>126</v>
+      </c>
+      <c r="M95" t="s">
+        <v>126</v>
+      </c>
+      <c r="O95" t="s">
         <v>108</v>
       </c>
-      <c r="K95" t="s">
-        <v>127</v>
-      </c>
-      <c r="M95" t="s">
-        <v>127</v>
-      </c>
-      <c r="O95" t="s">
+      <c r="Q95" t="s">
         <v>109</v>
       </c>
-      <c r="Q95" t="s">
-        <v>110</v>
-      </c>
       <c r="S95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V95" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B96" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C96" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D96" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I96" t="s">
+        <v>107</v>
+      </c>
+      <c r="K96" t="s">
+        <v>126</v>
+      </c>
+      <c r="M96" t="s">
+        <v>126</v>
+      </c>
+      <c r="O96" t="s">
         <v>108</v>
       </c>
-      <c r="K96" t="s">
-        <v>127</v>
-      </c>
-      <c r="M96" t="s">
-        <v>127</v>
-      </c>
-      <c r="O96" t="s">
+      <c r="Q96" t="s">
         <v>109</v>
       </c>
-      <c r="Q96" t="s">
-        <v>110</v>
-      </c>
       <c r="S96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V96" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="97" spans="1:31" ht="75" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" t="s">
+        <v>472</v>
+      </c>
+      <c r="C97" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B97" t="s">
-        <v>476</v>
-      </c>
-      <c r="C97" t="s">
-        <v>197</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U97" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="V97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="90" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" t="s">
+        <v>471</v>
+      </c>
+      <c r="C98" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B98" t="s">
-        <v>475</v>
-      </c>
-      <c r="C98" t="s">
-        <v>190</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U98" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="V98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="99" spans="1:31" ht="75" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C99" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U99" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="V99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="100" spans="1:31" ht="75" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B100" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C100" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U100" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="V100" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="W100" s="2" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="45" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>677</v>
+        <v>777</v>
       </c>
       <c r="B101" t="s">
-        <v>554</v>
+        <v>780</v>
       </c>
       <c r="C101" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U101" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="V101" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="W101" s="2" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.2">
@@ -8410,333 +8407,333 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="U102" t="s">
         <v>0</v>
       </c>
       <c r="V102" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="X102" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="Z102" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="AA102" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AB102" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="AC102" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B103" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" t="s">
+        <v>45</v>
+      </c>
+      <c r="F103" t="s">
         <v>33</v>
       </c>
-      <c r="D103" t="s">
-        <v>147</v>
-      </c>
-      <c r="E103" t="s">
-        <v>46</v>
-      </c>
-      <c r="F103" t="s">
-        <v>34</v>
-      </c>
       <c r="G103" t="s">
+        <v>110</v>
+      </c>
+      <c r="H103" t="s">
+        <v>113</v>
+      </c>
+      <c r="I103" t="s">
         <v>111</v>
       </c>
-      <c r="H103" t="s">
+      <c r="J103" t="s">
         <v>114</v>
       </c>
-      <c r="I103" t="s">
+      <c r="K103" t="s">
+        <v>110</v>
+      </c>
+      <c r="L103" t="s">
+        <v>115</v>
+      </c>
+      <c r="M103" t="s">
         <v>112</v>
       </c>
-      <c r="J103" t="s">
+      <c r="N103" t="s">
         <v>115</v>
       </c>
-      <c r="K103" t="s">
-        <v>111</v>
-      </c>
-      <c r="L103" t="s">
+      <c r="O103" t="s">
+        <v>106</v>
+      </c>
+      <c r="P103" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>109</v>
+      </c>
+      <c r="R103" t="s">
+        <v>117</v>
+      </c>
+      <c r="S103" t="s">
         <v>116</v>
       </c>
-      <c r="M103" t="s">
-        <v>113</v>
-      </c>
-      <c r="N103" t="s">
-        <v>116</v>
-      </c>
-      <c r="O103" t="s">
-        <v>107</v>
-      </c>
-      <c r="P103" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>110</v>
-      </c>
-      <c r="R103" t="s">
+      <c r="T103" t="s">
         <v>118</v>
-      </c>
-      <c r="S103" t="s">
-        <v>117</v>
-      </c>
-      <c r="T103" t="s">
-        <v>119</v>
       </c>
       <c r="U103" t="s">
         <v>0</v>
       </c>
       <c r="V103" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="W103" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="X103" s="2" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="Z103" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="AA103" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="AB103" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="AC103" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="B104" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="U104" t="s">
         <v>0</v>
       </c>
       <c r="V104" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X104" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="Y104" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="Z104" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="AA104" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AB104" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="AC104" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="AD104" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="AE104" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="B105" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="U105" t="s">
         <v>0</v>
       </c>
       <c r="V105" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X105" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="Z105" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="AA105" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AB105" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="AC105" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="AD105" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="AE105" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="B106" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="U106" t="s">
         <v>0</v>
       </c>
       <c r="V106" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X106" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="Y106" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="Z106" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="AA106" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="AB106" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="AC106" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="AD106" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="AE106" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="B107" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="U107" t="s">
         <v>0</v>
       </c>
       <c r="V107" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X107" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="Z107" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="AA107" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="AB107" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="AC107" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="AD107" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="AE107" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="B108" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="U108" t="s">
         <v>0</v>
       </c>
       <c r="V108" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X108" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="Z108" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="AA108" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AB108" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="AC108" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="AD108" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="AE108" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="B109" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="U109" t="s">
         <v>0</v>
       </c>
       <c r="V109" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X109" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="Y109" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="Z109" s="30" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="AA109" t="s">
+        <v>745</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>746</v>
+      </c>
+      <c r="AC109" t="s">
         <v>756</v>
       </c>
-      <c r="AB109" t="s">
-        <v>757</v>
-      </c>
-      <c r="AC109" t="s">
-        <v>767</v>
-      </c>
       <c r="AD109" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="AE109" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.2">
@@ -8754,65 +8751,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="B1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="C1" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="C2" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="B3" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="C3" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="B4" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="C4" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B5" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="C5" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -8833,57 +8830,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="C1" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C2" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C3" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="B4" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C4" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C5" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -8896,8 +8893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8912,43 +8909,43 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="D1" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="E1" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="F1" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="G1" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>562</v>
+        <v>788</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
         <v>9814446</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>463</v>
+        <v>787</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -8956,1187 +8953,1187 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
         <v>1722826</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
         <v>367806</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8">
         <v>367806</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8">
         <v>367806</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8">
         <v>367806</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8">
         <v>2337712</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8">
         <v>2337712</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8">
         <v>2337712</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8">
         <v>676822</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8">
         <v>1214830</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>587</v>
+        <v>789</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="10"/>
       <c r="E13" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>590</v>
+        <v>785</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="12"/>
       <c r="E14" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D15" s="8">
         <v>341573</v>
       </c>
       <c r="E15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D16" s="8">
         <v>183083</v>
       </c>
       <c r="E16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="8">
         <v>172022</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18">
         <v>32941</v>
       </c>
       <c r="E18" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="8">
         <v>110430</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8">
         <v>232503</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8">
         <v>28972</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>456</v>
+        <v>786</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="14">
         <v>137274</v>
       </c>
       <c r="E22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="14">
         <v>137274</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="14">
         <v>137274</v>
       </c>
       <c r="E24" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8">
         <v>2577563</v>
       </c>
       <c r="E25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8">
         <v>2577563</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="8">
         <v>45734</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="8">
         <v>634025</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="8">
         <v>12549</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8">
         <v>1665254</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8">
         <v>1665254</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>389</v>
+        <v>783</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="17">
         <v>30000</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="17">
         <v>14000</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="17">
         <v>57000</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="17">
         <v>967</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="32">
         <v>5377</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="32">
         <v>1880</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="17">
         <v>9800</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="17">
         <v>260</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="17">
         <v>74000</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C41" s="19"/>
       <c r="E41" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C42" s="19"/>
       <c r="E42" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>403</v>
+        <v>784</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C43" s="19"/>
       <c r="E43" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C44" s="19"/>
       <c r="E44" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C45" s="19"/>
       <c r="E45" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C46" s="22"/>
       <c r="E46" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C47" s="24"/>
       <c r="E47" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C48" s="24"/>
       <c r="E48" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C49" s="24"/>
       <c r="E49" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C50" s="24"/>
       <c r="E50" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C51" s="22"/>
       <c r="E51" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="25">
         <v>1998182</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="26">
         <v>56882</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="27">
         <v>3184</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="26">
         <v>14963449</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="27">
         <v>6944</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="27">
         <v>23995</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="27">
         <v>6575</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="27">
         <v>9775</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="27">
         <v>7264</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="27">
         <v>22114</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="27">
         <v>10354</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="27">
         <v>274</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="27">
         <v>5741</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="27">
         <v>7731871</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="27">
         <v>7073228</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="27">
         <v>65314</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="27"/>
       <c r="E68" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="27">
         <v>1179391</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="27">
         <v>173531</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -10166,291 +10163,291 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="B1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="C1" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="D1" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="E1" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B2" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B3" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="C3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" t="s">
         <v>308</v>
       </c>
-      <c r="D3" t="s">
-        <v>311</v>
-      </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="B4" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B5" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="C5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" t="s">
         <v>308</v>
-      </c>
-      <c r="D5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E5" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B6" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B7" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B8" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B9" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" t="s">
         <v>315</v>
       </c>
-      <c r="D9" t="s">
-        <v>318</v>
-      </c>
       <c r="E9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B10" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="B11" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" t="s">
         <v>315</v>
-      </c>
-      <c r="D11" t="s">
-        <v>310</v>
-      </c>
-      <c r="E11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C12" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="D12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="D13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C14" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="D14" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B15" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C15" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="D15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B16" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="C16" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="D16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B17" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C17" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="D17" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E17" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -10472,73 +10469,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F1" t="s">
+        <v>681</v>
+      </c>
+      <c r="G1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H1" t="s">
+        <v>684</v>
+      </c>
+      <c r="I1" t="s">
+        <v>683</v>
+      </c>
+      <c r="J1" t="s">
+        <v>685</v>
+      </c>
+      <c r="K1" t="s">
+        <v>686</v>
+      </c>
+      <c r="L1" t="s">
         <v>687</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="M1" t="s">
         <v>688</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>689</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
         <v>690</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
         <v>691</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
         <v>692</v>
       </c>
-      <c r="G1" t="s">
+      <c r="R1" t="s">
         <v>693</v>
       </c>
-      <c r="H1" t="s">
+      <c r="S1" t="s">
+        <v>694</v>
+      </c>
+      <c r="T1" t="s">
         <v>695</v>
       </c>
-      <c r="I1" t="s">
-        <v>694</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="U1" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="K1" t="s">
+      <c r="V1" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="L1" t="s">
+      <c r="W1" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="M1" t="s">
-        <v>699</v>
-      </c>
-      <c r="N1" t="s">
-        <v>700</v>
-      </c>
-      <c r="O1" t="s">
-        <v>701</v>
-      </c>
-      <c r="P1" t="s">
-        <v>702</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>703</v>
-      </c>
-      <c r="R1" t="s">
-        <v>704</v>
-      </c>
-      <c r="S1" t="s">
-        <v>705</v>
-      </c>
-      <c r="T1" t="s">
-        <v>706</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -10549,10 +10546,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B17" activeCellId="1" sqref="A17 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10562,30 +10559,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="D1" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="E1" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="F1" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
@@ -10593,33 +10590,33 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
         <v>8500239</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
@@ -10627,32 +10624,32 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D5" s="8">
         <v>1665254</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8">
@@ -10660,127 +10657,151 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="8">
         <v>108988</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8">
         <v>7072081</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D9" s="8">
         <v>4805139</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="11">
         <v>184275</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="26">
         <v>14963449</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="25">
         <v>1998182</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B13" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/backend/resource/neo4j2.xlsx
+++ b/backend/resource/neo4j2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28140" windowHeight="17540" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28140" windowHeight="17540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
@@ -1834,10 +1834,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>稽古厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>研讨室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3402,6 +3398,10 @@
   </si>
   <si>
     <t>香港中文期刊，澳门中文期刊，台湾中文期刊，海外中文期刊，中文_港澳台及海外期刊，中文港澳台及海外期刊，港澳台及海外期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽古厅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3912,8 +3912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3944,94 +3944,94 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" t="s">
         <v>677</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>678</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>679</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>680</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>681</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I1" t="s">
         <v>682</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>684</v>
       </c>
-      <c r="I1" t="s">
-        <v>683</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>685</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>686</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>687</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>688</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>689</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>690</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>691</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>692</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>693</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>694</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>698</v>
-      </c>
       <c r="X1" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y1" t="s">
         <v>716</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>717</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>718</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>719</v>
       </c>
-      <c r="AB1" t="s">
-        <v>720</v>
-      </c>
       <c r="AC1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AD1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -4099,7 +4099,7 @@
         <v>329</v>
       </c>
       <c r="W2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
@@ -4198,15 +4198,15 @@
         <v>331</v>
       </c>
       <c r="W5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>789</v>
+      </c>
+      <c r="B6" t="s">
         <v>460</v>
-      </c>
-      <c r="B6" t="s">
-        <v>461</v>
       </c>
       <c r="U6" t="s">
         <v>0</v>
@@ -4217,10 +4217,10 @@
     </row>
     <row r="7" spans="1:30" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -4277,13 +4277,13 @@
         <v>116</v>
       </c>
       <c r="U7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="V7" t="s">
         <v>332</v>
       </c>
       <c r="W7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -4294,7 +4294,7 @@
         <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="U8" t="s">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="U9" t="s">
         <v>0</v>
@@ -4319,10 +4319,10 @@
     </row>
     <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -4369,7 +4369,7 @@
         <v>268</v>
       </c>
       <c r="B11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U11" t="s">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U12" t="s">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U13" t="s">
         <v>0</v>
@@ -4411,7 +4411,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U14" t="s">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -4488,7 +4488,7 @@
         <v>333</v>
       </c>
       <c r="W15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -4559,7 +4559,7 @@
         <v>333</v>
       </c>
       <c r="W16" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -4567,7 +4567,7 @@
         <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -4634,7 +4634,7 @@
         <v>205</v>
       </c>
       <c r="B19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C19" t="s">
         <v>157</v>
@@ -4719,7 +4719,7 @@
         <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C21" t="s">
         <v>150</v>
@@ -4763,10 +4763,10 @@
     </row>
     <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>519</v>
+      </c>
+      <c r="B22" t="s">
         <v>520</v>
-      </c>
-      <c r="B22" t="s">
-        <v>521</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -4813,7 +4813,7 @@
         <v>269</v>
       </c>
       <c r="B23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="U23" t="s">
         <v>0</v>
@@ -4827,7 +4827,7 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U24" t="s">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="U25" t="s">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         <v>277</v>
       </c>
       <c r="B26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -4918,7 +4918,7 @@
         <v>334</v>
       </c>
       <c r="W26" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
@@ -4926,7 +4926,7 @@
         <v>257</v>
       </c>
       <c r="B27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="U27" t="s">
         <v>0</v>
@@ -4937,10 +4937,10 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
@@ -4985,7 +4985,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U29" t="s">
         <v>0</v>
@@ -4999,7 +4999,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="U30" t="s">
         <v>0</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>513</v>
+      </c>
+      <c r="B31" t="s">
         <v>514</v>
-      </c>
-      <c r="B31" t="s">
-        <v>515</v>
       </c>
       <c r="C31" t="s">
         <v>173</v>
@@ -5076,7 +5076,7 @@
         <v>335</v>
       </c>
       <c r="W31" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
@@ -5084,7 +5084,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
@@ -5146,10 +5146,10 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>542</v>
+      </c>
+      <c r="B33" t="s">
         <v>543</v>
-      </c>
-      <c r="B33" t="s">
-        <v>544</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
@@ -5212,15 +5212,15 @@
         <v>335</v>
       </c>
       <c r="W33" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C34" t="s">
         <v>38</v>
@@ -5283,7 +5283,7 @@
         <v>335</v>
       </c>
       <c r="W34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="45" x14ac:dyDescent="0.2">
@@ -5291,7 +5291,7 @@
         <v>418</v>
       </c>
       <c r="B35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C35" t="s">
         <v>170</v>
@@ -5354,7 +5354,7 @@
         <v>335</v>
       </c>
       <c r="W35" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
@@ -5362,7 +5362,7 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C36" t="s">
         <v>177</v>
@@ -5425,7 +5425,7 @@
         <v>335</v>
       </c>
       <c r="W36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
@@ -5433,7 +5433,7 @@
         <v>258</v>
       </c>
       <c r="B37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="U37" t="s">
         <v>0</v>
@@ -5444,10 +5444,10 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B38" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
@@ -5491,10 +5491,10 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B39" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
@@ -5541,7 +5541,7 @@
         <v>270</v>
       </c>
       <c r="B40" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="U40" t="s">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U41" t="s">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>266</v>
       </c>
       <c r="B42" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>31</v>
@@ -5634,7 +5634,7 @@
         <v>267</v>
       </c>
       <c r="B43" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>30</v>
@@ -5699,7 +5699,7 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U44" t="s">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
@@ -5778,10 +5778,10 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B46" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C46" t="s">
         <v>60</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="47" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>373</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
@@ -5884,10 +5884,10 @@
     </row>
     <row r="48" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B48" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C48" t="s">
         <v>90</v>
@@ -5938,7 +5938,7 @@
         <v>338</v>
       </c>
       <c r="W48" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="30" x14ac:dyDescent="0.2">
@@ -5946,7 +5946,7 @@
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C49" t="s">
         <v>77</v>
@@ -6008,10 +6008,10 @@
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>504</v>
+      </c>
+      <c r="B50" t="s">
         <v>505</v>
-      </c>
-      <c r="B50" t="s">
-        <v>506</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
@@ -6074,7 +6074,7 @@
         <v>338</v>
       </c>
       <c r="W50" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="45" x14ac:dyDescent="0.2">
@@ -6082,7 +6082,7 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C51" t="s">
         <v>81</v>
@@ -6144,10 +6144,10 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B52" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C52" t="s">
         <v>235</v>
@@ -6194,7 +6194,7 @@
         <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C53" t="s">
         <v>130</v>
@@ -6250,7 +6250,7 @@
         <v>128</v>
       </c>
       <c r="B54" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C54" t="s">
         <v>95</v>
@@ -6306,7 +6306,7 @@
         <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C55" t="s">
         <v>98</v>
@@ -6362,7 +6362,7 @@
         <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C56" t="s">
         <v>80</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>497</v>
+      </c>
+      <c r="B57" t="s">
         <v>498</v>
-      </c>
-      <c r="B57" t="s">
-        <v>499</v>
       </c>
       <c r="C57" t="s">
         <v>65</v>
@@ -6493,7 +6493,7 @@
         <v>338</v>
       </c>
       <c r="W57" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="30" x14ac:dyDescent="0.2">
@@ -6558,7 +6558,7 @@
         <v>339</v>
       </c>
       <c r="W58" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="30" x14ac:dyDescent="0.2">
@@ -6566,7 +6566,7 @@
         <v>382</v>
       </c>
       <c r="B59" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C59" t="s">
         <v>82</v>
@@ -6628,10 +6628,10 @@
     </row>
     <row r="60" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>494</v>
+      </c>
+      <c r="B60" t="s">
         <v>495</v>
-      </c>
-      <c r="B60" t="s">
-        <v>496</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -6696,7 +6696,7 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C61" t="s">
         <v>72</v>
@@ -6758,10 +6758,10 @@
     </row>
     <row r="62" spans="1:30" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>489</v>
+      </c>
+      <c r="B62" t="s">
         <v>490</v>
-      </c>
-      <c r="B62" t="s">
-        <v>491</v>
       </c>
       <c r="C62" t="s">
         <v>70</v>
@@ -6826,7 +6826,7 @@
         <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C63" t="s">
         <v>92</v>
@@ -6882,7 +6882,7 @@
         <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C64" t="s">
         <v>91</v>
@@ -6938,7 +6938,7 @@
         <v>450</v>
       </c>
       <c r="B65" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C65" t="s">
         <v>63</v>
@@ -7001,15 +7001,15 @@
         <v>340</v>
       </c>
       <c r="W65" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B66" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
@@ -7072,7 +7072,7 @@
         <v>340</v>
       </c>
       <c r="W66" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
@@ -7080,7 +7080,7 @@
         <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C67" t="s">
         <v>63</v>
@@ -7143,7 +7143,7 @@
         <v>340</v>
       </c>
       <c r="W67" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -7151,7 +7151,7 @@
         <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C68" t="s">
         <v>86</v>
@@ -7208,7 +7208,7 @@
         <v>341</v>
       </c>
       <c r="W68" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="69" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -7273,7 +7273,7 @@
         <v>341</v>
       </c>
       <c r="W69" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -7281,7 +7281,7 @@
         <v>265</v>
       </c>
       <c r="B70" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>299</v>
@@ -7334,10 +7334,10 @@
     </row>
     <row r="71" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B71" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>300</v>
@@ -7393,10 +7393,10 @@
         <v>262</v>
       </c>
       <c r="B72" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="U72" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V72" t="s">
         <v>348</v>
@@ -7407,10 +7407,10 @@
         <v>259</v>
       </c>
       <c r="B73" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="U73" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V73" t="s">
         <v>348</v>
@@ -7421,10 +7421,10 @@
         <v>260</v>
       </c>
       <c r="B74" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="U74" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V74" t="s">
         <v>348</v>
@@ -7435,10 +7435,10 @@
         <v>261</v>
       </c>
       <c r="B75" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="U75" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V75" t="s">
         <v>348</v>
@@ -7449,10 +7449,10 @@
         <v>275</v>
       </c>
       <c r="B76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="U76" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V76" t="s">
         <v>348</v>
@@ -7463,10 +7463,10 @@
         <v>288</v>
       </c>
       <c r="B77" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="U77" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V77" t="s">
         <v>348</v>
@@ -7474,10 +7474,10 @@
     </row>
     <row r="78" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B78" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C78" t="s">
         <v>56</v>
@@ -7507,7 +7507,7 @@
         <v>248</v>
       </c>
       <c r="U78" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V78" t="s">
         <v>348</v>
@@ -7518,10 +7518,10 @@
         <v>271</v>
       </c>
       <c r="B79" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="U79" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V79" t="s">
         <v>348</v>
@@ -7532,10 +7532,10 @@
         <v>284</v>
       </c>
       <c r="B80" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U80" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V80" t="s">
         <v>348</v>
@@ -7546,10 +7546,10 @@
         <v>263</v>
       </c>
       <c r="B81" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="U81" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V81" t="s">
         <v>350</v>
@@ -7560,10 +7560,10 @@
         <v>264</v>
       </c>
       <c r="B82" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="U82" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V82" t="s">
         <v>350</v>
@@ -7574,7 +7574,7 @@
         <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C83" t="s">
         <v>52</v>
@@ -7619,7 +7619,7 @@
         <v>29</v>
       </c>
       <c r="U83" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V83" t="s">
         <v>350</v>
@@ -7633,10 +7633,10 @@
         <v>272</v>
       </c>
       <c r="B84" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="U84" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V84" t="s">
         <v>350</v>
@@ -7647,10 +7647,10 @@
         <v>285</v>
       </c>
       <c r="B85" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U85" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V85" t="s">
         <v>350</v>
@@ -7661,7 +7661,7 @@
         <v>287</v>
       </c>
       <c r="B86" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C86" t="s">
         <v>53</v>
@@ -7706,7 +7706,7 @@
         <v>29</v>
       </c>
       <c r="U86" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V86" t="s">
         <v>352</v>
@@ -7720,7 +7720,7 @@
         <v>133</v>
       </c>
       <c r="B87" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C87" t="s">
         <v>53</v>
@@ -7765,7 +7765,7 @@
         <v>29</v>
       </c>
       <c r="U87" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V87" t="s">
         <v>352</v>
@@ -7779,7 +7779,7 @@
         <v>132</v>
       </c>
       <c r="B88" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C88" t="s">
         <v>53</v>
@@ -7824,7 +7824,7 @@
         <v>29</v>
       </c>
       <c r="U88" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V88" t="s">
         <v>352</v>
@@ -7838,10 +7838,10 @@
         <v>289</v>
       </c>
       <c r="B89" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U89" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V89" t="s">
         <v>352</v>
@@ -7852,10 +7852,10 @@
         <v>276</v>
       </c>
       <c r="B90" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U90" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V90" t="s">
         <v>352</v>
@@ -7866,10 +7866,10 @@
         <v>273</v>
       </c>
       <c r="B91" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U91" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V91" t="s">
         <v>352</v>
@@ -7880,10 +7880,10 @@
         <v>286</v>
       </c>
       <c r="B92" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="U92" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="V92" t="s">
         <v>352</v>
@@ -7894,7 +7894,7 @@
         <v>200</v>
       </c>
       <c r="B93" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C93" t="s">
         <v>202</v>
@@ -7909,15 +7909,15 @@
         <v>344</v>
       </c>
       <c r="W93" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>548</v>
+      </c>
+      <c r="B94" t="s">
         <v>549</v>
-      </c>
-      <c r="B94" t="s">
-        <v>550</v>
       </c>
       <c r="C94" t="s">
         <v>206</v>
@@ -7958,10 +7958,10 @@
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B95" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C95" t="s">
         <v>224</v>
@@ -8005,10 +8005,10 @@
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B96" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C96" t="s">
         <v>236</v>
@@ -8055,7 +8055,7 @@
         <v>180</v>
       </c>
       <c r="B97" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C97" t="s">
         <v>194</v>
@@ -8112,13 +8112,13 @@
         <v>29</v>
       </c>
       <c r="U97" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="V97" t="s">
         <v>181</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="90" x14ac:dyDescent="0.2">
@@ -8126,7 +8126,7 @@
         <v>185</v>
       </c>
       <c r="B98" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C98" t="s">
         <v>187</v>
@@ -8183,13 +8183,13 @@
         <v>29</v>
       </c>
       <c r="U98" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="V98" t="s">
         <v>186</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="99" spans="1:31" ht="75" x14ac:dyDescent="0.2">
@@ -8197,7 +8197,7 @@
         <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C99" t="s">
         <v>182</v>
@@ -8254,13 +8254,13 @@
         <v>29</v>
       </c>
       <c r="U99" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="V99" t="s">
         <v>193</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="100" spans="1:31" ht="75" x14ac:dyDescent="0.2">
@@ -8268,7 +8268,7 @@
         <v>192</v>
       </c>
       <c r="B100" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C100" t="s">
         <v>182</v>
@@ -8331,15 +8331,15 @@
         <v>181</v>
       </c>
       <c r="W100" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="45" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B101" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C101" t="s">
         <v>182</v>
@@ -8393,13 +8393,13 @@
         <v>29</v>
       </c>
       <c r="U101" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="V101" t="s">
         <v>181</v>
       </c>
       <c r="W101" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.2">
@@ -8407,7 +8407,7 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="U102" t="s">
         <v>0</v>
@@ -8416,19 +8416,19 @@
         <v>332</v>
       </c>
       <c r="X102" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="Z102" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA102" t="s">
         <v>727</v>
       </c>
-      <c r="AA102" t="s">
-        <v>728</v>
-      </c>
       <c r="AB102" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AC102" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="30" x14ac:dyDescent="0.2">
@@ -8436,7 +8436,7 @@
         <v>459</v>
       </c>
       <c r="B103" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>32</v>
@@ -8499,30 +8499,30 @@
         <v>181</v>
       </c>
       <c r="W103" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="X103" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="Z103" t="s">
         <v>721</v>
       </c>
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>722</v>
       </c>
-      <c r="AA103" t="s">
+      <c r="AB103" t="s">
         <v>723</v>
       </c>
-      <c r="AB103" t="s">
-        <v>724</v>
-      </c>
       <c r="AC103" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B104" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="U104" t="s">
         <v>0</v>
@@ -8531,36 +8531,36 @@
         <v>181</v>
       </c>
       <c r="X104" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y104" t="s">
         <v>725</v>
       </c>
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>726</v>
       </c>
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>727</v>
       </c>
-      <c r="AA104" t="s">
+      <c r="AB104" t="s">
         <v>728</v>
       </c>
-      <c r="AB104" t="s">
-        <v>729</v>
-      </c>
       <c r="AC104" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AD104" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AE104" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B105" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="U105" t="s">
         <v>0</v>
@@ -8569,33 +8569,33 @@
         <v>181</v>
       </c>
       <c r="X105" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="Z105" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA105" t="s">
         <v>727</v>
       </c>
-      <c r="AA105" t="s">
-        <v>728</v>
-      </c>
       <c r="AB105" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AC105" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AD105" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AE105" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B106" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="U106" t="s">
         <v>0</v>
@@ -8604,36 +8604,36 @@
         <v>181</v>
       </c>
       <c r="X106" t="s">
+        <v>730</v>
+      </c>
+      <c r="Y106" t="s">
         <v>731</v>
       </c>
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>732</v>
       </c>
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>733</v>
       </c>
-      <c r="AA106" t="s">
+      <c r="AB106" t="s">
         <v>734</v>
       </c>
-      <c r="AB106" t="s">
-        <v>735</v>
-      </c>
       <c r="AC106" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AD106" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AE106" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B107" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="U107" t="s">
         <v>0</v>
@@ -8642,33 +8642,33 @@
         <v>181</v>
       </c>
       <c r="X107" t="s">
+        <v>735</v>
+      </c>
+      <c r="Z107" t="s">
         <v>736</v>
       </c>
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>737</v>
       </c>
-      <c r="AA107" t="s">
+      <c r="AB107" t="s">
         <v>738</v>
       </c>
-      <c r="AB107" t="s">
-        <v>739</v>
-      </c>
       <c r="AC107" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AD107" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AE107" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B108" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="U108" t="s">
         <v>0</v>
@@ -8677,33 +8677,33 @@
         <v>181</v>
       </c>
       <c r="X108" t="s">
+        <v>739</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>727</v>
+      </c>
+      <c r="AB108" t="s">
         <v>740</v>
       </c>
-      <c r="Z108" t="s">
-        <v>727</v>
-      </c>
-      <c r="AA108" t="s">
-        <v>728</v>
-      </c>
-      <c r="AB108" t="s">
-        <v>741</v>
-      </c>
       <c r="AC108" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AD108" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AE108" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B109" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="U109" t="s">
         <v>0</v>
@@ -8712,28 +8712,28 @@
         <v>181</v>
       </c>
       <c r="X109" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y109" t="s">
         <v>742</v>
       </c>
-      <c r="Y109" t="s">
+      <c r="Z109" s="30" t="s">
         <v>743</v>
       </c>
-      <c r="Z109" s="30" t="s">
+      <c r="AA109" t="s">
         <v>744</v>
       </c>
-      <c r="AA109" t="s">
+      <c r="AB109" t="s">
         <v>745</v>
       </c>
-      <c r="AB109" t="s">
-        <v>746</v>
-      </c>
       <c r="AC109" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AD109" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AE109" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.2">
@@ -8759,13 +8759,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1" t="s">
         <v>761</v>
-      </c>
-      <c r="B1" t="s">
-        <v>677</v>
-      </c>
-      <c r="C1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -8773,43 +8773,43 @@
         <v>226</v>
       </c>
       <c r="B2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C2" t="s">
         <v>763</v>
-      </c>
-      <c r="C2" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B3" t="s">
         <v>765</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>766</v>
-      </c>
-      <c r="C3" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B4" t="s">
         <v>768</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>769</v>
-      </c>
-      <c r="C4" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C5" t="s">
         <v>771</v>
-      </c>
-      <c r="C5" t="s">
-        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -8830,13 +8830,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1" t="s">
         <v>677</v>
-      </c>
-      <c r="C1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -8844,10 +8844,10 @@
         <v>454</v>
       </c>
       <c r="B2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -8855,32 +8855,32 @@
         <v>455</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -8893,8 +8893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8909,40 +8909,40 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" t="s">
         <v>701</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F1" t="s">
         <v>702</v>
       </c>
-      <c r="E1" t="s">
-        <v>676</v>
-      </c>
-      <c r="F1" t="s">
-        <v>703</v>
-      </c>
       <c r="G1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
         <v>9814446</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>355</v>
@@ -8953,10 +8953,10 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>554</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>555</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
@@ -8971,10 +8971,10 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>556</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>557</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
@@ -8989,10 +8989,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>558</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>559</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8">
@@ -9007,10 +9007,10 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>560</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>561</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8">
@@ -9025,10 +9025,10 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>562</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>563</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8">
@@ -9043,10 +9043,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>566</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>567</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8">
@@ -9064,7 +9064,7 @@
         <v>361</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8">
@@ -9079,10 +9079,10 @@
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>570</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8">
@@ -9097,10 +9097,10 @@
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>572</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8">
@@ -9115,10 +9115,10 @@
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>574</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8">
@@ -9136,7 +9136,7 @@
         <v>365</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="10"/>
@@ -9149,10 +9149,10 @@
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="12"/>
@@ -9165,10 +9165,10 @@
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>372</v>
@@ -9180,15 +9180,15 @@
         <v>373</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>583</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>375</v>
@@ -9205,10 +9205,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>586</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="8">
@@ -9223,10 +9223,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>588</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18">
@@ -9241,10 +9241,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>590</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="8">
@@ -9259,10 +9259,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>592</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8">
@@ -9277,10 +9277,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8">
@@ -9295,7 +9295,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>452</v>
@@ -9313,10 +9313,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="14">
@@ -9329,10 +9329,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="14">
@@ -9347,10 +9347,10 @@
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>600</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="8">
@@ -9365,10 +9365,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8">
@@ -9381,10 +9381,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>603</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>604</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="8">
@@ -9399,10 +9399,10 @@
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>606</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="8">
@@ -9417,10 +9417,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>607</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>608</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="8">
@@ -9435,10 +9435,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>609</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>610</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8">
@@ -9453,10 +9453,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8">
@@ -9471,7 +9471,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>386</v>
@@ -9543,10 +9543,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>612</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>613</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="32">
@@ -9561,10 +9561,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>615</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="32">
@@ -9579,10 +9579,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>616</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>617</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="17">
@@ -9597,10 +9597,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>618</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>619</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="17">
@@ -9615,10 +9615,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>620</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>621</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="17">
@@ -9663,7 +9663,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>400</v>
@@ -9837,7 +9837,7 @@
         <v>424</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="27">
@@ -9891,7 +9891,7 @@
         <v>430</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="27">
@@ -9996,10 +9996,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>624</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="27">
@@ -10017,7 +10017,7 @@
         <v>442</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="27">
@@ -10032,10 +10032,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>667</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>668</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="27">
@@ -10050,10 +10050,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>669</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>670</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="27">
@@ -10071,7 +10071,7 @@
         <v>443</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="27">
@@ -10105,7 +10105,7 @@
         <v>445</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="27">
@@ -10123,7 +10123,7 @@
         <v>447</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="27">
@@ -10163,27 +10163,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1" t="s">
         <v>704</v>
-      </c>
-      <c r="E1" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B2" t="s">
         <v>631</v>
-      </c>
-      <c r="B2" t="s">
-        <v>632</v>
       </c>
       <c r="C2" t="s">
         <v>305</v>
@@ -10197,10 +10197,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B3" t="s">
         <v>633</v>
-      </c>
-      <c r="B3" t="s">
-        <v>634</v>
       </c>
       <c r="C3" t="s">
         <v>305</v>
@@ -10214,10 +10214,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B4" t="s">
         <v>635</v>
-      </c>
-      <c r="B4" t="s">
-        <v>636</v>
       </c>
       <c r="C4" t="s">
         <v>305</v>
@@ -10231,10 +10231,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B5" t="s">
         <v>637</v>
-      </c>
-      <c r="B5" t="s">
-        <v>638</v>
       </c>
       <c r="C5" t="s">
         <v>305</v>
@@ -10248,10 +10248,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>638</v>
+      </c>
+      <c r="B6" t="s">
         <v>639</v>
-      </c>
-      <c r="B6" t="s">
-        <v>640</v>
       </c>
       <c r="C6" t="s">
         <v>305</v>
@@ -10265,10 +10265,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B7" t="s">
         <v>641</v>
-      </c>
-      <c r="B7" t="s">
-        <v>642</v>
       </c>
       <c r="C7" t="s">
         <v>312</v>
@@ -10282,10 +10282,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B8" t="s">
         <v>643</v>
-      </c>
-      <c r="B8" t="s">
-        <v>644</v>
       </c>
       <c r="C8" t="s">
         <v>312</v>
@@ -10299,10 +10299,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B9" t="s">
         <v>645</v>
-      </c>
-      <c r="B9" t="s">
-        <v>646</v>
       </c>
       <c r="C9" t="s">
         <v>312</v>
@@ -10316,10 +10316,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B10" t="s">
         <v>647</v>
-      </c>
-      <c r="B10" t="s">
-        <v>648</v>
       </c>
       <c r="C10" t="s">
         <v>312</v>
@@ -10333,10 +10333,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>648</v>
+      </c>
+      <c r="B11" t="s">
         <v>649</v>
-      </c>
-      <c r="B11" t="s">
-        <v>650</v>
       </c>
       <c r="C11" t="s">
         <v>312</v>
@@ -10356,7 +10356,7 @@
         <v>318</v>
       </c>
       <c r="C12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D12" t="s">
         <v>347</v>
@@ -10373,7 +10373,7 @@
         <v>321</v>
       </c>
       <c r="C13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D13" t="s">
         <v>349</v>
@@ -10390,7 +10390,7 @@
         <v>325</v>
       </c>
       <c r="C14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D14" t="s">
         <v>307</v>
@@ -10404,10 +10404,10 @@
         <v>326</v>
       </c>
       <c r="B15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D15" t="s">
         <v>322</v>
@@ -10421,10 +10421,10 @@
         <v>327</v>
       </c>
       <c r="B16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C16" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D16" t="s">
         <v>307</v>
@@ -10435,13 +10435,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>652</v>
+      </c>
+      <c r="B17" t="s">
         <v>653</v>
       </c>
-      <c r="B17" t="s">
-        <v>654</v>
-      </c>
       <c r="C17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D17" t="s">
         <v>319</v>
@@ -10469,73 +10469,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" t="s">
         <v>677</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>678</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>679</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>680</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>681</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I1" t="s">
         <v>682</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>684</v>
       </c>
-      <c r="I1" t="s">
-        <v>683</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>685</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>686</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>687</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>688</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>689</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>690</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>691</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>692</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>693</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>694</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -10548,8 +10548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B17" activeCellId="1" sqref="A17 B17"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10559,30 +10559,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" t="s">
         <v>701</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F1" t="s">
         <v>702</v>
-      </c>
-      <c r="E1" t="s">
-        <v>676</v>
-      </c>
-      <c r="F1" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>565</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
@@ -10595,10 +10595,10 @@
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>576</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8">
@@ -10613,10 +10613,10 @@
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>552</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8">
@@ -10677,10 +10677,10 @@
     </row>
     <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8">
@@ -10712,10 +10712,10 @@
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="11">
@@ -10751,7 +10751,7 @@
         <v>417</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="25">
@@ -10769,7 +10769,7 @@
         <v>353</v>
       </c>
       <c r="B13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">

--- a/backend/resource/neo4j2.xlsx
+++ b/backend/resource/neo4j2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="864">
   <si>
     <t>总馆北区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2373,24 +2373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>280；372</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>129；136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北；北</t>
-    <rPh sb="0" eb="1">
-      <t>bei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>200_200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2399,22 +2381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>267；267</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>407；407</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南；东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北；东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100，100_100，100_200_300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2423,89 +2389,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>267；267；267；267</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>407；407；407；407</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北东；南东；东南；西</t>
-    <rPh sb="0" eb="1">
-      <t>bei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>dong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dong</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>d</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>200_200_350</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>267；267；267</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>407；407；407；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西；北；东北</t>
-    <rPh sb="5" eb="6">
-      <t>bei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>250_400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北；南</t>
-    <rPh sb="2" eb="3">
-      <t>nan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>250，100_100，250</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>432；543</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>432；123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>411；123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北西；北；西</t>
-    <rPh sb="1" eb="2">
-      <t>xi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>bei</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xi</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2802,10 +2698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总馆北区_F2_办证处_1，总馆南区_F1_办证处_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>还书</t>
     <rPh sb="0" eb="1">
       <t>huan shu</t>
@@ -2853,13 +2745,6 @@
     <t>总馆南区一层</t>
     <rPh sb="4" eb="5">
       <t>yi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <rPh sb="0" eb="1">
-      <t>shi jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4056,9 +3941,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>馆藏文献目录检索、借阅、续借、预约以及读者信息管理等服务。</t>
-  </si>
-  <si>
     <t>目录查询区，目录查找区，查阅目录区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4222,14 +4104,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>咨询服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总馆北区办证处，总馆南区办证处</t>
     <rPh sb="10" eb="11">
       <t>nan</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总馆北区办证处，总馆南区办证处</t>
+  </si>
+  <si>
+    <t>周一至周日</t>
+    <rPh sb="0" eb="1">
+      <t>zhou yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhou liu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工16：30之前，自助9：00--21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工16：30之前，自助9：00--17：00</t>
+    <rPh sb="10" eb="11">
+      <t>zi zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日时间</t>
+    <rPh sb="0" eb="1">
+      <t>gong zuo ri</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末时间</t>
+    <rPh sb="0" eb="1">
+      <t>zhou mo shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馆藏文献目录检索、借阅、续借、预约以及读者信息管理等服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280;372</t>
+  </si>
+  <si>
+    <t>280;372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129;136</t>
+  </si>
+  <si>
+    <t>129;136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>267;267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>407;407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>267;267;267;267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>407;407;407;407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>267;267;267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>407;407;407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>432;123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411;123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北;北</t>
+    <rPh sb="0" eb="1">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南;东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北;东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北东;南东;东南;西</t>
+    <rPh sb="0" eb="1">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西;北;东北</t>
+    <rPh sb="5" eb="6">
+      <t>bei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北;南</t>
+    <rPh sb="2" eb="3">
+      <t>nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北西;北;西</t>
+    <rPh sb="1" eb="2">
+      <t>xi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文图书阅览区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4435,7 +4482,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -4469,8 +4516,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4531,7 +4586,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4548,7 +4602,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="37">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -4564,6 +4618,10 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4578,6 +4636,10 @@
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4857,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE93"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4973,18 +5035,18 @@
         <v>556</v>
       </c>
       <c r="AC1" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="AD1" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="AE1" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="B2" t="s">
         <v>208</v>
@@ -4999,7 +5061,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="G2" t="s">
         <v>90</v>
@@ -5047,10 +5109,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="W2" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -5086,7 +5148,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="B5" t="s">
         <v>370</v>
@@ -5101,24 +5163,24 @@
         <v>557</v>
       </c>
       <c r="Z5" t="s">
-        <v>558</v>
+        <v>845</v>
       </c>
       <c r="AA5" t="s">
-        <v>559</v>
+        <v>847</v>
       </c>
       <c r="AB5" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC5" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>697</v>
+        <v>863</v>
       </c>
       <c r="B6" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -5178,25 +5240,25 @@
         <v>502</v>
       </c>
       <c r="V6" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="W6" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="X6" s="2" t="s">
         <v>557</v>
       </c>
       <c r="Z6" t="s">
-        <v>558</v>
+        <v>845</v>
       </c>
       <c r="AA6" t="s">
-        <v>559</v>
+        <v>847</v>
       </c>
       <c r="AB6" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC6" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="AD6">
         <v>2</v>
@@ -5207,7 +5269,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="B7" t="s">
         <v>371</v>
@@ -5222,36 +5284,36 @@
         <v>557</v>
       </c>
       <c r="Z7" t="s">
-        <v>558</v>
+        <v>845</v>
       </c>
       <c r="AA7" t="s">
-        <v>559</v>
+        <v>847</v>
       </c>
       <c r="AB7" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC7" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>743</v>
+      <c r="A8" s="37" t="s">
+        <v>724</v>
       </c>
       <c r="B8" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="C8" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="G8" t="s">
         <v>91</v>
@@ -5290,30 +5352,30 @@
         <v>91</v>
       </c>
       <c r="U8" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="V8" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>557</v>
       </c>
       <c r="Z8" t="s">
-        <v>558</v>
+        <v>845</v>
       </c>
       <c r="AA8" t="s">
-        <v>559</v>
+        <v>847</v>
       </c>
       <c r="AB8" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC8" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="B9" t="s">
         <v>414</v>
@@ -5350,15 +5412,15 @@
         <v>91</v>
       </c>
       <c r="U9" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="V9" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="90" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="B10" t="s">
         <v>415</v>
@@ -5373,7 +5435,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="G10" t="s">
         <v>90</v>
@@ -5397,25 +5459,25 @@
         <v>93</v>
       </c>
       <c r="U10" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="V10" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>557</v>
       </c>
       <c r="Z10" t="s">
-        <v>558</v>
+        <v>845</v>
       </c>
       <c r="AA10" t="s">
-        <v>559</v>
+        <v>847</v>
       </c>
       <c r="AB10" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC10" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -5435,16 +5497,16 @@
         <v>557</v>
       </c>
       <c r="Z11" t="s">
-        <v>558</v>
+        <v>845</v>
       </c>
       <c r="AA11" t="s">
-        <v>559</v>
+        <v>847</v>
       </c>
       <c r="AB11" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC11" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -5464,16 +5526,16 @@
         <v>557</v>
       </c>
       <c r="Z12" t="s">
-        <v>558</v>
+        <v>845</v>
       </c>
       <c r="AA12" t="s">
-        <v>559</v>
+        <v>847</v>
       </c>
       <c r="AB12" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC12" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -5493,21 +5555,21 @@
         <v>557</v>
       </c>
       <c r="Z13" t="s">
-        <v>558</v>
+        <v>845</v>
       </c>
       <c r="AA13" t="s">
-        <v>559</v>
+        <v>847</v>
       </c>
       <c r="AB13" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC13" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="B14" t="s">
         <v>407</v>
@@ -5546,30 +5608,30 @@
         <v>91</v>
       </c>
       <c r="U14" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="V14" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>557</v>
       </c>
       <c r="Z14" t="s">
-        <v>558</v>
+        <v>845</v>
       </c>
       <c r="AA14" t="s">
-        <v>559</v>
+        <v>847</v>
       </c>
       <c r="AB14" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC14" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="B15" t="s">
         <v>407</v>
@@ -5601,37 +5663,37 @@
       <c r="O15" t="s">
         <v>91</v>
       </c>
-      <c r="Q15" s="39" t="s">
+      <c r="Q15" s="38" t="s">
         <v>29</v>
       </c>
       <c r="S15" t="s">
         <v>91</v>
       </c>
       <c r="U15" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="V15" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>557</v>
       </c>
       <c r="Z15" t="s">
-        <v>558</v>
+        <v>845</v>
       </c>
       <c r="AA15" t="s">
-        <v>559</v>
+        <v>847</v>
       </c>
       <c r="AB15" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC15" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="B16" t="s">
         <v>420</v>
@@ -5643,7 +5705,7 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
@@ -5664,25 +5726,25 @@
         <v>91</v>
       </c>
       <c r="U16" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="V16" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>557</v>
       </c>
       <c r="Z16" t="s">
-        <v>558</v>
+        <v>845</v>
       </c>
       <c r="AA16" t="s">
-        <v>559</v>
+        <v>847</v>
       </c>
       <c r="AB16" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC16" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -5728,10 +5790,10 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="B18" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="C18" t="s">
         <v>124</v>
@@ -5764,10 +5826,10 @@
         <v>91</v>
       </c>
       <c r="U18" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="V18" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -5872,7 +5934,7 @@
         <v>411</v>
       </c>
       <c r="B24" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="C24" t="s">
         <v>140</v>
@@ -5935,7 +5997,7 @@
         <v>270</v>
       </c>
       <c r="W24" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="AE24">
         <v>1</v>
@@ -6008,10 +6070,10 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="B26" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -6074,7 +6136,7 @@
         <v>270</v>
       </c>
       <c r="W26" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="AE26">
         <v>1</v>
@@ -6082,10 +6144,10 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="B27" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -6148,7 +6210,7 @@
         <v>270</v>
       </c>
       <c r="W27" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="AE27">
         <v>1</v>
@@ -6222,7 +6284,7 @@
         <v>270</v>
       </c>
       <c r="W28" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -6293,7 +6355,7 @@
         <v>270</v>
       </c>
       <c r="W29" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="AE29">
         <v>1</v>
@@ -6301,7 +6363,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="B30" t="s">
         <v>416</v>
@@ -6340,10 +6402,10 @@
         <v>93</v>
       </c>
       <c r="U30" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="V30" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
@@ -6362,10 +6424,10 @@
     </row>
     <row r="32" spans="1:31" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="B32" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>30</v>
@@ -6425,22 +6487,22 @@
         <v>148</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="X32" s="2" t="s">
         <v>557</v>
       </c>
       <c r="Z32" t="s">
-        <v>558</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>559</v>
+        <v>845</v>
+      </c>
+      <c r="AA32" s="38" t="s">
+        <v>846</v>
       </c>
       <c r="AB32" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC32" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
@@ -6572,7 +6634,7 @@
         <v>272</v>
       </c>
       <c r="W35" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="AE35">
         <v>1</v>
@@ -6645,7 +6707,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="B37" t="s">
         <v>405</v>
@@ -6711,7 +6773,7 @@
         <v>272</v>
       </c>
       <c r="W37" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="AE37">
         <v>1</v>
@@ -6787,7 +6849,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
       <c r="B39" t="s">
         <v>417</v>
@@ -6837,13 +6899,13 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
       <c r="C40" t="s">
         <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>228</v>
@@ -6893,7 +6955,7 @@
         <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
       <c r="C41" t="s">
         <v>112</v>
@@ -7002,7 +7064,7 @@
     </row>
     <row r="43" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
       <c r="B43" t="s">
         <v>403</v>
@@ -7126,7 +7188,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="B45" t="s">
         <v>400</v>
@@ -7192,7 +7254,7 @@
         <v>272</v>
       </c>
       <c r="W45" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="AE45">
         <v>1</v>
@@ -7260,7 +7322,7 @@
         <v>273</v>
       </c>
       <c r="W46" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="AE46">
         <v>1</v>
@@ -7333,7 +7395,7 @@
     </row>
     <row r="48" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="B48" t="s">
         <v>398</v>
@@ -7584,13 +7646,13 @@
     </row>
     <row r="52" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="B52" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>228</v>
@@ -7756,7 +7818,7 @@
         <v>274</v>
       </c>
       <c r="W54" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="AE54">
         <v>1</v>
@@ -7764,7 +7826,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="B55" t="s">
         <v>391</v>
@@ -7830,7 +7892,7 @@
         <v>274</v>
       </c>
       <c r="W55" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
@@ -7901,7 +7963,7 @@
         <v>274</v>
       </c>
       <c r="W56" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="30" x14ac:dyDescent="0.2">
@@ -7966,7 +8028,7 @@
         <v>275</v>
       </c>
       <c r="W57" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="30" x14ac:dyDescent="0.2">
@@ -8031,12 +8093,12 @@
         <v>275</v>
       </c>
       <c r="W58" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="B59" t="s">
         <v>501</v>
@@ -8087,15 +8149,15 @@
         <v>16</v>
       </c>
       <c r="V59" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="B60" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="E60" t="s">
         <v>40</v>
@@ -8140,7 +8202,7 @@
         <v>16</v>
       </c>
       <c r="V60" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
@@ -8581,7 +8643,7 @@
         <v>276</v>
       </c>
       <c r="W78" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="75" x14ac:dyDescent="0.2">
@@ -8646,28 +8708,28 @@
         <v>29</v>
       </c>
       <c r="U79" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="V79" t="s">
         <v>148</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="X79" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="Z79" t="s">
-        <v>558</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>559</v>
+      <c r="Z79" s="38" t="s">
+        <v>844</v>
+      </c>
+      <c r="AA79" s="38" t="s">
+        <v>846</v>
       </c>
       <c r="AB79" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC79" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="90" x14ac:dyDescent="0.2">
@@ -8732,28 +8794,28 @@
         <v>29</v>
       </c>
       <c r="U80" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="V80" t="s">
         <v>153</v>
       </c>
       <c r="W80" s="2" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="Z80" t="s">
-        <v>558</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>559</v>
+      <c r="Z80" s="38" t="s">
+        <v>844</v>
+      </c>
+      <c r="AA80" s="38" t="s">
+        <v>846</v>
       </c>
       <c r="AB80" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC80" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="75" x14ac:dyDescent="0.2">
@@ -8818,28 +8880,28 @@
         <v>29</v>
       </c>
       <c r="U81" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="V81" t="s">
         <v>160</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="X81" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="Z81" t="s">
-        <v>558</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>559</v>
+      <c r="Z81" s="38" t="s">
+        <v>844</v>
+      </c>
+      <c r="AA81" s="38" t="s">
+        <v>846</v>
       </c>
       <c r="AB81" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC81" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="75" x14ac:dyDescent="0.2">
@@ -8904,36 +8966,36 @@
         <v>29</v>
       </c>
       <c r="U82" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="V82" t="s">
         <v>148</v>
       </c>
       <c r="W82" s="2" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="X82" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="Z82" t="s">
-        <v>558</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>559</v>
+      <c r="Z82" s="38" t="s">
+        <v>844</v>
+      </c>
+      <c r="AA82" s="38" t="s">
+        <v>846</v>
       </c>
       <c r="AB82" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC82" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="45" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="B83" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="C83" t="s">
         <v>149</v>
@@ -8987,28 +9049,28 @@
         <v>29</v>
       </c>
       <c r="U83" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="V83" t="s">
         <v>148</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="X83" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="Z83" t="s">
-        <v>558</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>559</v>
+      <c r="Z83" s="38" t="s">
+        <v>844</v>
+      </c>
+      <c r="AA83" s="38" t="s">
+        <v>846</v>
       </c>
       <c r="AB83" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC83" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.2">
@@ -9025,39 +9087,39 @@
         <v>267</v>
       </c>
       <c r="X84" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="Z84" t="s">
-        <v>563</v>
+        <v>848</v>
       </c>
       <c r="AA84" t="s">
-        <v>564</v>
+        <v>849</v>
       </c>
       <c r="AB84" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC84" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="B85" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="E85" t="s">
         <v>40</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="G85" t="s">
         <v>90</v>
@@ -9108,22 +9170,22 @@
         <v>148</v>
       </c>
       <c r="W85" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="X85" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="Z85" t="s">
-        <v>563</v>
+        <v>848</v>
       </c>
       <c r="AA85" t="s">
-        <v>564</v>
+        <v>849</v>
       </c>
       <c r="AB85" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC85" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="AE85">
         <v>1</v>
@@ -9131,10 +9193,10 @@
     </row>
     <row r="86" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="B86" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>31</v>
@@ -9197,22 +9259,22 @@
         <v>148</v>
       </c>
       <c r="W86" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="X86" s="2" t="s">
         <v>557</v>
       </c>
       <c r="Z86" t="s">
-        <v>558</v>
+        <v>845</v>
       </c>
       <c r="AA86" t="s">
-        <v>559</v>
+        <v>847</v>
       </c>
       <c r="AB86" t="s">
-        <v>560</v>
+        <v>856</v>
       </c>
       <c r="AC86" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="AD86">
         <v>1</v>
@@ -9232,28 +9294,28 @@
         <v>148</v>
       </c>
       <c r="X87" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="Y87" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="Z87" t="s">
-        <v>563</v>
+        <v>848</v>
       </c>
       <c r="AA87" t="s">
-        <v>564</v>
+        <v>849</v>
       </c>
       <c r="AB87" t="s">
-        <v>565</v>
+        <v>857</v>
       </c>
       <c r="AC87" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="AD87" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="AE87" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.2">
@@ -9270,25 +9332,25 @@
         <v>148</v>
       </c>
       <c r="X88" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="Z88" t="s">
-        <v>563</v>
+        <v>848</v>
       </c>
       <c r="AA88" t="s">
-        <v>564</v>
+        <v>849</v>
       </c>
       <c r="AB88" t="s">
-        <v>566</v>
+        <v>858</v>
       </c>
       <c r="AC88" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="AD88" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="AE88" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.2">
@@ -9305,28 +9367,28 @@
         <v>148</v>
       </c>
       <c r="X89" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="Y89" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="Z89" t="s">
-        <v>569</v>
+        <v>850</v>
       </c>
       <c r="AA89" t="s">
-        <v>570</v>
+        <v>851</v>
       </c>
       <c r="AB89" t="s">
-        <v>571</v>
+        <v>859</v>
       </c>
       <c r="AC89" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="AD89" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="AE89" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.2">
@@ -9343,25 +9405,25 @@
         <v>148</v>
       </c>
       <c r="X90" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="Z90" t="s">
+        <v>852</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>853</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>860</v>
+      </c>
+      <c r="AC90" t="s">
         <v>573</v>
       </c>
-      <c r="AA90" t="s">
-        <v>574</v>
-      </c>
-      <c r="AB90" t="s">
-        <v>575</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>590</v>
-      </c>
       <c r="AD90" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="AE90" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.2">
@@ -9378,25 +9440,25 @@
         <v>148</v>
       </c>
       <c r="X91" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="Z91" t="s">
-        <v>563</v>
+        <v>848</v>
       </c>
       <c r="AA91" t="s">
-        <v>564</v>
+        <v>849</v>
       </c>
       <c r="AB91" t="s">
-        <v>577</v>
+        <v>861</v>
       </c>
       <c r="AC91" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="AD91" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="AE91" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.2">
@@ -9413,28 +9475,28 @@
         <v>148</v>
       </c>
       <c r="X92" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="Y92" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="Z92" s="28" t="s">
-        <v>580</v>
+        <v>854</v>
       </c>
       <c r="AA92" t="s">
-        <v>581</v>
+        <v>855</v>
       </c>
       <c r="AB92" t="s">
-        <v>582</v>
+        <v>862</v>
       </c>
       <c r="AC92" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="AD92" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="AE92" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.2">
@@ -9473,7 +9535,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="B1" t="s">
         <v>536</v>
@@ -9481,26 +9543,26 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -9521,16 +9583,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="B1" t="s">
         <v>513</v>
       </c>
       <c r="C1" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="D1" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9541,49 +9603,49 @@
         <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="D2" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="B3" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="C3" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="B4" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="C4" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="D4" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="B5" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="D5" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -9613,16 +9675,16 @@
         <v>514</v>
       </c>
       <c r="D1" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="E1" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="F1" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="G1" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -9633,88 +9695,88 @@
         <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D2" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="E2" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="F2" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="G2" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="B3" t="s">
         <v>373</v>
       </c>
       <c r="C3" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="D3" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="E3" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="F3" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="G3" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="D4" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="E4" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="F4" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="G4" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="B5" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="C5" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="D5" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="E5" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="F5" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="G5" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -9762,54 +9824,54 @@
         <v>539</v>
       </c>
       <c r="G1" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="H1" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="I1" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="J1" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="K1" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="L1" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
         <v>9814446</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>284</v>
       </c>
       <c r="I2" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>425</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="D3" s="8">
         <v>1722826</v>
@@ -9821,15 +9883,15 @@
         <v>284</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>426</v>
@@ -9848,12 +9910,12 @@
         <v>1984</v>
       </c>
       <c r="I4" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>427</v>
@@ -9872,12 +9934,12 @@
         <v>1984</v>
       </c>
       <c r="I5" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>428</v>
@@ -9894,12 +9956,12 @@
       </c>
       <c r="G6" s="29"/>
       <c r="I6" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>429</v>
@@ -9918,12 +9980,12 @@
         <v>1984</v>
       </c>
       <c r="I7" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>431</v>
@@ -9933,18 +9995,18 @@
         <v>2337712</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>288</v>
       </c>
       <c r="I8" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>432</v>
@@ -9954,18 +10016,18 @@
         <v>2337712</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>288</v>
       </c>
       <c r="I9" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>433</v>
@@ -9975,39 +10037,39 @@
         <v>2337712</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>288</v>
       </c>
       <c r="I10" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8">
         <v>676822</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>288</v>
       </c>
       <c r="I11" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>434</v>
@@ -10017,21 +10079,21 @@
         <v>1214830</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="I12" s="39" t="s">
-        <v>775</v>
+      <c r="I12" s="38" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
@@ -10045,15 +10107,15 @@
         <v>1984</v>
       </c>
       <c r="I13" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="10"/>
@@ -10061,24 +10123,24 @@
         <v>289</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="G14" s="29">
         <v>1984</v>
       </c>
       <c r="I14" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="D15" s="8">
         <v>341573</v>
@@ -10093,21 +10155,21 @@
         <v>1910</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="345" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="D16" s="8">
         <v>341573</v>
@@ -10122,21 +10184,21 @@
         <v>1954</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="D17" s="8">
         <v>341573</v>
@@ -10151,21 +10213,21 @@
         <v>1910</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="D18" s="8">
         <v>183083</v>
@@ -10180,21 +10242,21 @@
         <v>1929</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="D19" s="8">
         <v>183083</v>
@@ -10209,10 +10271,10 @@
         <v>1929</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -10235,13 +10297,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>809</v>
+      <c r="C21" s="42" t="s">
+        <v>790</v>
       </c>
       <c r="D21">
         <v>32941</v>
@@ -10252,14 +10314,14 @@
       <c r="F21" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="43">
         <v>1929</v>
       </c>
-      <c r="I21" s="43" t="s">
-        <v>780</v>
+      <c r="I21" s="42" t="s">
+        <v>761</v>
       </c>
       <c r="J21" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -10270,7 +10332,7 @@
         <v>442</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="D22" s="8">
         <v>110430</v>
@@ -10285,18 +10347,18 @@
         <v>1954</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="D23" s="8">
         <v>232503</v>
@@ -10308,10 +10370,10 @@
         <v>293</v>
       </c>
       <c r="I23" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="J23" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10322,7 +10384,7 @@
         <v>444</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="D24" s="8">
         <v>28972</v>
@@ -10334,7 +10396,7 @@
         <v>293</v>
       </c>
       <c r="I24" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10345,7 +10407,7 @@
         <v>364</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="D25" s="12">
         <v>137274</v>
@@ -10360,10 +10422,10 @@
         <v>1928</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="J25" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10374,7 +10436,7 @@
         <v>447</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="D26" s="12">
         <v>137274</v>
@@ -10385,14 +10447,14 @@
       <c r="F26" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="H26" s="42" t="s">
-        <v>768</v>
+      <c r="H26" s="41" t="s">
+        <v>749</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10403,7 +10465,7 @@
         <v>448</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="D27" s="12">
         <v>137274</v>
@@ -10414,25 +10476,25 @@
       <c r="F27" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="H27" s="42" t="s">
-        <v>767</v>
+      <c r="H27" s="41" t="s">
+        <v>748</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="D28" s="8">
         <v>2577563</v>
@@ -10446,11 +10508,11 @@
       <c r="G28">
         <v>1900</v>
       </c>
-      <c r="I28" s="45" t="s">
-        <v>802</v>
+      <c r="I28" s="44" t="s">
+        <v>783</v>
       </c>
       <c r="J28" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10461,7 +10523,7 @@
         <v>450</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="D29" s="8">
         <v>2577563</v>
@@ -10475,11 +10537,11 @@
       <c r="G29">
         <v>1900</v>
       </c>
-      <c r="I29" s="45" t="s">
-        <v>802</v>
+      <c r="I29" s="44" t="s">
+        <v>783</v>
       </c>
       <c r="J29" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -10508,7 +10570,7 @@
         <v>454</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="D31" s="8">
         <v>634025</v>
@@ -10523,10 +10585,10 @@
         <v>1947</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="J31" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -10567,7 +10629,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>459</v>
@@ -10585,7 +10647,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>304</v>
@@ -10746,19 +10808,19 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="36" t="s">
-        <v>690</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>690</v>
+      <c r="A44" s="35" t="s">
+        <v>671</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>671</v>
       </c>
       <c r="C44" s="7"/>
-      <c r="D44" s="37">
+      <c r="D44" s="36">
         <v>108988</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10769,7 +10831,7 @@
         <v>313</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="E45" t="s">
         <v>314</v>
@@ -10781,10 +10843,10 @@
         <v>2009</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="J45" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="225" x14ac:dyDescent="0.2">
@@ -10795,7 +10857,7 @@
         <v>315</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>316</v>
@@ -10809,13 +10871,13 @@
     </row>
     <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>317</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>318</v>
@@ -10824,10 +10886,10 @@
         <v>293</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="J47" s="29" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10838,7 +10900,7 @@
         <v>319</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>318</v>
@@ -10847,7 +10909,7 @@
         <v>293</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -10988,7 +11050,7 @@
         <v>335</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -11006,7 +11068,7 @@
         <v>335</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -11143,7 +11205,7 @@
         <v>471</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="D66" s="25">
         <v>274</v>
@@ -11155,10 +11217,10 @@
         <v>358</v>
       </c>
       <c r="I66" s="31" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="J66" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -11169,7 +11231,7 @@
         <v>472</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="D67" s="25">
         <v>5741</v>
@@ -11189,7 +11251,7 @@
         <v>507</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="D68" s="25">
         <v>7731871</v>
@@ -11204,10 +11266,10 @@
         <v>1981</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="J68" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -11676,7 +11738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+    <sheetView zoomScale="86" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -11696,7 +11758,7 @@
         <v>537</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="E1" t="s">
         <v>538</v>
@@ -11713,7 +11775,7 @@
         <v>430</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="35">
+      <c r="D2" s="34">
         <v>52547</v>
       </c>
       <c r="E2" s="8">
@@ -11731,10 +11793,10 @@
         <v>435</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>53409</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="39">
         <v>8500239</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -11759,7 +11821,7 @@
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>365</v>
@@ -11816,11 +11878,11 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="40">
+      <c r="E8" s="39">
         <v>7072081</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="294" x14ac:dyDescent="0.2">
@@ -11828,10 +11890,10 @@
         <v>291</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>762</v>
+        <v>803</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>743</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8">
@@ -11843,16 +11905,16 @@
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <v>7859</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="39">
         <v>184275</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -11861,16 +11923,16 @@
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>1710</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="39">
         <v>102214</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -11904,14 +11966,14 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="B1" t="s">
         <v>513</v>
@@ -11920,189 +11982,204 @@
         <v>512</v>
       </c>
       <c r="D1" t="s">
-        <v>536</v>
+        <v>633</v>
       </c>
       <c r="E1" t="s">
-        <v>652</v>
+        <v>840</v>
       </c>
       <c r="F1" t="s">
-        <v>642</v>
+        <v>841</v>
       </c>
       <c r="G1" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="H1" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="B2" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="C2" t="s">
-        <v>635</v>
+        <v>836</v>
+      </c>
+      <c r="D2" t="s">
+        <v>837</v>
+      </c>
+      <c r="E2" t="s">
+        <v>838</v>
+      </c>
+      <c r="F2" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="B3" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="C3" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="B4" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="C4" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="C5" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="B6" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="C6" t="s">
-        <v>646</v>
-      </c>
-      <c r="E6" t="s">
-        <v>653</v>
+        <v>627</v>
+      </c>
+      <c r="D6" t="s">
+        <v>634</v>
       </c>
       <c r="F6" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="B7" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="B8" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="C8" t="s">
-        <v>856</v>
-      </c>
-      <c r="F8" s="32">
-        <v>0.6875</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>673</v>
+        <v>835</v>
+      </c>
+      <c r="D8" t="s">
+        <v>837</v>
+      </c>
+      <c r="E8" t="s">
+        <v>838</v>
+      </c>
+      <c r="F8" t="s">
+        <v>839</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
+        <v>807</v>
+      </c>
+      <c r="B9" t="s">
+        <v>815</v>
+      </c>
+      <c r="C9" t="s">
+        <v>806</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>842</v>
+      </c>
+      <c r="B10" t="s">
+        <v>808</v>
+      </c>
+      <c r="C10" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
+        <v>816</v>
+      </c>
+      <c r="B11" t="s">
+        <v>817</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
+        <v>819</v>
+      </c>
+      <c r="B12" t="s">
+        <v>820</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>821</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B13" t="s">
         <v>827</v>
-      </c>
-      <c r="B9" t="s">
-        <v>835</v>
-      </c>
-      <c r="C9" t="s">
-        <v>826</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
-        <v>855</v>
-      </c>
-      <c r="B10" t="s">
-        <v>828</v>
-      </c>
-      <c r="C10" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>836</v>
-      </c>
-      <c r="B11" t="s">
-        <v>837</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>839</v>
-      </c>
-      <c r="B12" t="s">
-        <v>840</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>841</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
-        <v>846</v>
-      </c>
-      <c r="B13" t="s">
-        <v>847</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
-        <v>849</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>850</v>
+      <c r="A14" s="37" t="s">
+        <v>829</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>830</v>
       </c>
       <c r="C14" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -12130,12 +12207,12 @@
         <v>536</v>
       </c>
       <c r="B1" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="B2" s="29">
         <v>1960.91</v>
@@ -12143,9 +12220,9 @@
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>688</v>
-      </c>
-      <c r="B3" s="34">
+        <v>669</v>
+      </c>
+      <c r="B3" s="33">
         <v>39011882</v>
       </c>
     </row>

--- a/backend/resource/neo4j2.xlsx
+++ b/backend/resource/neo4j2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="860">
   <si>
     <t>总馆北区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2756,114 +2756,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参观讲解服务</t>
-  </si>
-  <si>
-    <t>参观讲解服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>少年儿童馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触摸屏阅读</t>
-  </si>
-  <si>
-    <r>
-      <t>设有触摸屏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>台，触摸屏系统集成了报刊、连环画、年画、国图瑰宝、千家诗和少儿游戏六部分内容。报刊包括</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>种少儿期刊和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>种电子报纸；连环画含</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>300</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>余种经典作品；“国图瑰宝”含敦煌遗书、赵城金藏、永乐大典、四库全书等经典数字化资源</t>
-    </r>
-  </si>
-  <si>
-    <t>周末故事会、儿童读物与影展、低幼悦读会等形式多样、内容丰富与读书相关的主题活动</t>
-  </si>
-  <si>
-    <t>举办主题活动</t>
-  </si>
-  <si>
-    <t>举办主题活动</t>
-    <rPh sb="0" eb="1">
-      <t>ju ban</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhu ti huo dong</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2924,16 +2817,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周一至周五</t>
-    <rPh sb="0" eb="1">
-      <t>zhou yi zhi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zhou wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周末开放日期</t>
     <rPh sb="0" eb="1">
       <t>zhou mo</t>
@@ -2991,19 +2874,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周二至周五</t>
-    <rPh sb="0" eb="1">
-      <t>zhou yi zhi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>er</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zhou wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总馆南区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3017,10 +2887,6 @@
   </si>
   <si>
     <t>24小时（自助）还书处</t>
-  </si>
-  <si>
-    <t>触摸屏阅读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>证件</t>
@@ -4277,6 +4143,42 @@
   </si>
   <si>
     <t>中文图书阅览区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <rPh sb="0" eb="1">
+      <t>huo dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日时间</t>
+    <rPh sb="0" eb="1">
+      <t>gong zuo ri shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末故事会</t>
+  </si>
+  <si>
+    <t>儿童读物与影展</t>
+  </si>
+  <si>
+    <t>低幼悦读会</t>
+  </si>
+  <si>
+    <t>周一至周日</t>
+    <rPh sb="0" eb="1">
+      <t>zhou yi zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhou wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4919,7 +4821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
@@ -5041,12 +4943,12 @@
         <v>586</v>
       </c>
       <c r="AE1" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="B2" t="s">
         <v>208</v>
@@ -5061,7 +4963,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="G2" t="s">
         <v>90</v>
@@ -5109,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="W2" t="s">
         <v>579</v>
@@ -5163,13 +5065,13 @@
         <v>557</v>
       </c>
       <c r="Z5" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AA5" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="AB5" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AC5" t="s">
         <v>568</v>
@@ -5177,10 +5079,10 @@
     </row>
     <row r="6" spans="1:31" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="B6" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -5240,7 +5142,7 @@
         <v>502</v>
       </c>
       <c r="V6" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="W6" t="s">
         <v>579</v>
@@ -5249,13 +5151,13 @@
         <v>557</v>
       </c>
       <c r="Z6" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AA6" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="AB6" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AC6" t="s">
         <v>568</v>
@@ -5269,7 +5171,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="B7" t="s">
         <v>371</v>
@@ -5284,13 +5186,13 @@
         <v>557</v>
       </c>
       <c r="Z7" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AA7" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="AB7" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AC7" t="s">
         <v>568</v>
@@ -5298,22 +5200,22 @@
     </row>
     <row r="8" spans="1:31" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="B8" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C8" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G8" t="s">
         <v>91</v>
@@ -5352,22 +5254,22 @@
         <v>91</v>
       </c>
       <c r="U8" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="V8" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>557</v>
       </c>
       <c r="Z8" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AA8" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="AB8" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AC8" t="s">
         <v>568</v>
@@ -5375,7 +5277,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="B9" t="s">
         <v>414</v>
@@ -5412,15 +5314,15 @@
         <v>91</v>
       </c>
       <c r="U9" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="V9" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="90" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="B10" t="s">
         <v>415</v>
@@ -5435,7 +5337,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="G10" t="s">
         <v>90</v>
@@ -5459,22 +5361,22 @@
         <v>93</v>
       </c>
       <c r="U10" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="V10" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>557</v>
       </c>
       <c r="Z10" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AA10" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="AB10" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AC10" t="s">
         <v>568</v>
@@ -5497,13 +5399,13 @@
         <v>557</v>
       </c>
       <c r="Z11" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AA11" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="AB11" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AC11" t="s">
         <v>568</v>
@@ -5526,13 +5428,13 @@
         <v>557</v>
       </c>
       <c r="Z12" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AA12" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="AB12" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AC12" t="s">
         <v>568</v>
@@ -5555,13 +5457,13 @@
         <v>557</v>
       </c>
       <c r="Z13" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AA13" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="AB13" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AC13" t="s">
         <v>568</v>
@@ -5569,7 +5471,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="B14" t="s">
         <v>407</v>
@@ -5608,22 +5510,22 @@
         <v>91</v>
       </c>
       <c r="U14" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="V14" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>557</v>
       </c>
       <c r="Z14" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AA14" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="AB14" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AC14" t="s">
         <v>568</v>
@@ -5631,7 +5533,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="B15" t="s">
         <v>407</v>
@@ -5670,22 +5572,22 @@
         <v>91</v>
       </c>
       <c r="U15" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="V15" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>557</v>
       </c>
       <c r="Z15" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AA15" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="AB15" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AC15" t="s">
         <v>568</v>
@@ -5693,7 +5595,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B16" t="s">
         <v>420</v>
@@ -5705,7 +5607,7 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
@@ -5726,22 +5628,22 @@
         <v>91</v>
       </c>
       <c r="U16" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="V16" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>557</v>
       </c>
       <c r="Z16" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AA16" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="AB16" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AC16" t="s">
         <v>568</v>
@@ -5790,10 +5692,10 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="B18" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="C18" t="s">
         <v>124</v>
@@ -5826,10 +5728,10 @@
         <v>91</v>
       </c>
       <c r="U18" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="V18" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -5934,7 +5836,7 @@
         <v>411</v>
       </c>
       <c r="B24" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="C24" t="s">
         <v>140</v>
@@ -5997,7 +5899,7 @@
         <v>270</v>
       </c>
       <c r="W24" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="AE24">
         <v>1</v>
@@ -6070,10 +5972,10 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="B26" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -6147,7 +6049,7 @@
         <v>593</v>
       </c>
       <c r="B27" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -6284,7 +6186,7 @@
         <v>270</v>
       </c>
       <c r="W28" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -6355,7 +6257,7 @@
         <v>270</v>
       </c>
       <c r="W29" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="AE29">
         <v>1</v>
@@ -6363,7 +6265,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="B30" t="s">
         <v>416</v>
@@ -6402,10 +6304,10 @@
         <v>93</v>
       </c>
       <c r="U30" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="V30" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
@@ -6424,10 +6326,10 @@
     </row>
     <row r="32" spans="1:31" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B32" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>30</v>
@@ -6487,19 +6389,19 @@
         <v>148</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="X32" s="2" t="s">
         <v>557</v>
       </c>
       <c r="Z32" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AA32" s="38" t="s">
+        <v>836</v>
+      </c>
+      <c r="AB32" t="s">
         <v>846</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>856</v>
       </c>
       <c r="AC32" t="s">
         <v>568</v>
@@ -6707,7 +6609,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="B37" t="s">
         <v>405</v>
@@ -6849,7 +6751,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B39" t="s">
         <v>417</v>
@@ -6899,13 +6801,13 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="C40" t="s">
         <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>228</v>
@@ -6955,7 +6857,7 @@
         <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="C41" t="s">
         <v>112</v>
@@ -7064,7 +6966,7 @@
     </row>
     <row r="43" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="B43" t="s">
         <v>403</v>
@@ -7188,7 +7090,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="B45" t="s">
         <v>400</v>
@@ -7395,7 +7297,7 @@
     </row>
     <row r="48" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B48" t="s">
         <v>398</v>
@@ -7646,13 +7548,13 @@
     </row>
     <row r="52" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="B52" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>228</v>
@@ -8098,7 +8000,7 @@
     </row>
     <row r="59" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="B59" t="s">
         <v>501</v>
@@ -8149,7 +8051,7 @@
         <v>16</v>
       </c>
       <c r="V59" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -8720,13 +8622,13 @@
         <v>557</v>
       </c>
       <c r="Z79" s="38" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="AA79" s="38" t="s">
+        <v>836</v>
+      </c>
+      <c r="AB79" t="s">
         <v>846</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>856</v>
       </c>
       <c r="AC79" t="s">
         <v>568</v>
@@ -8806,13 +8708,13 @@
         <v>557</v>
       </c>
       <c r="Z80" s="38" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="AA80" s="38" t="s">
+        <v>836</v>
+      </c>
+      <c r="AB80" t="s">
         <v>846</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>856</v>
       </c>
       <c r="AC80" t="s">
         <v>568</v>
@@ -8892,13 +8794,13 @@
         <v>557</v>
       </c>
       <c r="Z81" s="38" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="AA81" s="38" t="s">
+        <v>836</v>
+      </c>
+      <c r="AB81" t="s">
         <v>846</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>856</v>
       </c>
       <c r="AC81" t="s">
         <v>568</v>
@@ -8978,13 +8880,13 @@
         <v>557</v>
       </c>
       <c r="Z82" s="38" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="AA82" s="38" t="s">
+        <v>836</v>
+      </c>
+      <c r="AB82" t="s">
         <v>846</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>856</v>
       </c>
       <c r="AC82" t="s">
         <v>568</v>
@@ -9061,13 +8963,13 @@
         <v>557</v>
       </c>
       <c r="Z83" s="38" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="AA83" s="38" t="s">
+        <v>836</v>
+      </c>
+      <c r="AB83" t="s">
         <v>846</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>856</v>
       </c>
       <c r="AC83" t="s">
         <v>568</v>
@@ -9090,13 +8992,13 @@
         <v>567</v>
       </c>
       <c r="Z84" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="AA84" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="AB84" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AC84" t="s">
         <v>569</v>
@@ -9104,22 +9006,22 @@
     </row>
     <row r="85" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B85" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E85" t="s">
         <v>40</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G85" t="s">
         <v>90</v>
@@ -9170,19 +9072,19 @@
         <v>148</v>
       </c>
       <c r="W85" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="X85" t="s">
         <v>567</v>
       </c>
       <c r="Z85" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="AA85" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="AB85" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AC85" t="s">
         <v>569</v>
@@ -9193,10 +9095,10 @@
     </row>
     <row r="86" spans="1:31" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B86" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>31</v>
@@ -9265,13 +9167,13 @@
         <v>557</v>
       </c>
       <c r="Z86" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="AA86" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="AB86" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="AC86" t="s">
         <v>568</v>
@@ -9300,13 +9202,13 @@
         <v>559</v>
       </c>
       <c r="Z87" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="AA87" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="AB87" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="AC87" t="s">
         <v>570</v>
@@ -9335,13 +9237,13 @@
         <v>558</v>
       </c>
       <c r="Z88" t="s">
+        <v>838</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>839</v>
+      </c>
+      <c r="AB88" t="s">
         <v>848</v>
-      </c>
-      <c r="AA88" t="s">
-        <v>849</v>
-      </c>
-      <c r="AB88" t="s">
-        <v>858</v>
       </c>
       <c r="AC88" t="s">
         <v>571</v>
@@ -9373,13 +9275,13 @@
         <v>561</v>
       </c>
       <c r="Z89" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="AA89" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="AB89" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="AC89" t="s">
         <v>572</v>
@@ -9408,13 +9310,13 @@
         <v>562</v>
       </c>
       <c r="Z90" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="AA90" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="AB90" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="AC90" t="s">
         <v>573</v>
@@ -9443,13 +9345,13 @@
         <v>563</v>
       </c>
       <c r="Z91" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="AA91" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="AB91" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="AC91" t="s">
         <v>574</v>
@@ -9481,13 +9383,13 @@
         <v>565</v>
       </c>
       <c r="Z92" s="28" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="AA92" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="AB92" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="AC92" t="s">
         <v>575</v>
@@ -9535,7 +9437,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="B1" t="s">
         <v>536</v>
@@ -9543,7 +9445,7 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>610</v>
@@ -9551,7 +9453,7 @@
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>610</v>
@@ -9559,7 +9461,7 @@
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>610</v>
@@ -9622,10 +9524,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B4" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="C4" t="s">
         <v>584</v>
@@ -9639,7 +9541,7 @@
         <v>614</v>
       </c>
       <c r="B5" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="C5" t="s">
         <v>585</v>
@@ -9658,8 +9560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9675,16 +9577,16 @@
         <v>514</v>
       </c>
       <c r="D1" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E1" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F1" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="G1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -9698,21 +9600,21 @@
         <v>578</v>
       </c>
       <c r="D2" t="s">
-        <v>640</v>
+        <v>859</v>
       </c>
       <c r="E2" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="F2" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G2" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="B3" t="s">
         <v>373</v>
@@ -9721,21 +9623,21 @@
         <v>577</v>
       </c>
       <c r="D3" t="s">
-        <v>640</v>
+        <v>859</v>
       </c>
       <c r="E3" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="F3" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G3" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
@@ -9744,39 +9646,39 @@
         <v>576</v>
       </c>
       <c r="D4" t="s">
-        <v>640</v>
+        <v>859</v>
       </c>
       <c r="E4" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="F4" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G4" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B5" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C5" t="s">
         <v>576</v>
       </c>
       <c r="D5" t="s">
-        <v>647</v>
+        <v>859</v>
       </c>
       <c r="E5" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="F5" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G5" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -9824,19 +9726,19 @@
         <v>539</v>
       </c>
       <c r="G1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="H1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="I1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="J1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="K1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="L1" t="s">
         <v>616</v>
@@ -9844,34 +9746,34 @@
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8">
         <v>9814446</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>284</v>
       </c>
       <c r="I2" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>425</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="D3" s="8">
         <v>1722826</v>
@@ -9883,10 +9785,10 @@
         <v>284</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -9910,7 +9812,7 @@
         <v>1984</v>
       </c>
       <c r="I4" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -9934,7 +9836,7 @@
         <v>1984</v>
       </c>
       <c r="I5" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -9956,7 +9858,7 @@
       </c>
       <c r="G6" s="29"/>
       <c r="I6" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -9980,7 +9882,7 @@
         <v>1984</v>
       </c>
       <c r="I7" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -9995,13 +9897,13 @@
         <v>2337712</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>288</v>
       </c>
       <c r="I8" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -10016,13 +9918,13 @@
         <v>2337712</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>288</v>
       </c>
       <c r="I9" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.2">
@@ -10037,18 +9939,18 @@
         <v>2337712</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>288</v>
       </c>
       <c r="I10" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>608</v>
@@ -10058,13 +9960,13 @@
         <v>676822</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>288</v>
       </c>
       <c r="I11" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.2">
@@ -10079,13 +9981,13 @@
         <v>1214830</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>288</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.2">
@@ -10107,7 +10009,7 @@
         <v>1984</v>
       </c>
       <c r="I13" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.2">
@@ -10123,24 +10025,24 @@
         <v>289</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="G14" s="29">
         <v>1984</v>
       </c>
       <c r="I14" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="D15" s="8">
         <v>341573</v>
@@ -10155,21 +10057,21 @@
         <v>1910</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="345" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="D16" s="8">
         <v>341573</v>
@@ -10184,21 +10086,21 @@
         <v>1954</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="D17" s="8">
         <v>341573</v>
@@ -10213,21 +10115,21 @@
         <v>1910</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D18" s="8">
         <v>183083</v>
@@ -10242,21 +10144,21 @@
         <v>1929</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D19" s="8">
         <v>183083</v>
@@ -10271,10 +10173,10 @@
         <v>1929</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -10297,13 +10199,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>440</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="D21">
         <v>32941</v>
@@ -10318,10 +10220,10 @@
         <v>1929</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="J21" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -10332,7 +10234,7 @@
         <v>442</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="D22" s="8">
         <v>110430</v>
@@ -10347,18 +10249,18 @@
         <v>1954</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="D23" s="8">
         <v>232503</v>
@@ -10370,10 +10272,10 @@
         <v>293</v>
       </c>
       <c r="I23" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="J23" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10384,7 +10286,7 @@
         <v>444</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="D24" s="8">
         <v>28972</v>
@@ -10396,7 +10298,7 @@
         <v>293</v>
       </c>
       <c r="I24" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10407,7 +10309,7 @@
         <v>364</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="D25" s="12">
         <v>137274</v>
@@ -10422,10 +10324,10 @@
         <v>1928</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="J25" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10436,7 +10338,7 @@
         <v>447</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="D26" s="12">
         <v>137274</v>
@@ -10448,13 +10350,13 @@
         <v>293</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10465,7 +10367,7 @@
         <v>448</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="D27" s="12">
         <v>137274</v>
@@ -10477,24 +10379,24 @@
         <v>293</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="D28" s="8">
         <v>2577563</v>
@@ -10509,10 +10411,10 @@
         <v>1900</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="J28" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10523,7 +10425,7 @@
         <v>450</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D29" s="8">
         <v>2577563</v>
@@ -10538,10 +10440,10 @@
         <v>1900</v>
       </c>
       <c r="I29" s="44" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="J29" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -10570,7 +10472,7 @@
         <v>454</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="D31" s="8">
         <v>634025</v>
@@ -10585,10 +10487,10 @@
         <v>1947</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="J31" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -10809,10 +10711,10 @@
     </row>
     <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="36">
@@ -10820,7 +10722,7 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10831,7 +10733,7 @@
         <v>313</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="E45" t="s">
         <v>314</v>
@@ -10843,10 +10745,10 @@
         <v>2009</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="J45" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="225" x14ac:dyDescent="0.2">
@@ -10857,7 +10759,7 @@
         <v>315</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>316</v>
@@ -10877,7 +10779,7 @@
         <v>317</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>318</v>
@@ -10886,10 +10788,10 @@
         <v>293</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="J47" s="29" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -10900,7 +10802,7 @@
         <v>319</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>318</v>
@@ -10909,7 +10811,7 @@
         <v>293</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -11050,7 +10952,7 @@
         <v>335</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -11068,7 +10970,7 @@
         <v>335</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -11205,7 +11107,7 @@
         <v>471</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="D66" s="25">
         <v>274</v>
@@ -11217,10 +11119,10 @@
         <v>358</v>
       </c>
       <c r="I66" s="31" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="J66" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -11231,7 +11133,7 @@
         <v>472</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="D67" s="25">
         <v>5741</v>
@@ -11251,7 +11153,7 @@
         <v>507</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="D68" s="25">
         <v>7731871</v>
@@ -11266,10 +11168,10 @@
         <v>1981</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="J68" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -11649,10 +11551,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E4" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11726,6 +11628,68 @@
       </c>
       <c r="W1" s="1" t="s">
         <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>854</v>
+      </c>
+      <c r="B4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D4" t="s">
+        <v>855</v>
+      </c>
+      <c r="E4" t="s">
+        <v>831</v>
+      </c>
+      <c r="F4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>856</v>
+      </c>
+      <c r="B5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C5" t="s">
+        <v>627</v>
+      </c>
+      <c r="E5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>857</v>
+      </c>
+      <c r="B6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>858</v>
+      </c>
+      <c r="B7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C7" t="s">
+        <v>627</v>
+      </c>
+      <c r="E7" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -11758,7 +11722,7 @@
         <v>537</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="E1" t="s">
         <v>538</v>
@@ -11890,10 +11854,10 @@
         <v>291</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8">
@@ -11905,10 +11869,10 @@
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="34">
@@ -11923,10 +11887,10 @@
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="34">
@@ -11963,7 +11927,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
@@ -11971,7 +11935,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>616</v>
       </c>
@@ -11982,19 +11946,19 @@
         <v>512</v>
       </c>
       <c r="D1" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="F1" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="G1" t="s">
         <v>624</v>
       </c>
       <c r="H1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -12005,16 +11969,16 @@
         <v>619</v>
       </c>
       <c r="C2" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="D2" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="E2" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="F2" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -12025,161 +11989,116 @@
         <v>620</v>
       </c>
       <c r="C3" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>626</v>
+      <c r="A4" t="s">
+        <v>629</v>
       </c>
       <c r="B4" t="s">
-        <v>625</v>
-      </c>
-      <c r="C4" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
-        <v>652</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>628</v>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B5" t="s">
+        <v>630</v>
       </c>
       <c r="C5" t="s">
-        <v>627</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>632</v>
+        <v>825</v>
+      </c>
+      <c r="D5" t="s">
+        <v>827</v>
+      </c>
+      <c r="E5" t="s">
+        <v>828</v>
+      </c>
+      <c r="F5" t="s">
+        <v>829</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
+        <v>797</v>
       </c>
       <c r="B6" t="s">
-        <v>631</v>
+        <v>805</v>
       </c>
       <c r="C6" t="s">
-        <v>627</v>
-      </c>
-      <c r="D6" t="s">
-        <v>634</v>
-      </c>
-      <c r="F6" t="s">
-        <v>635</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>636</v>
+        <v>796</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
+        <v>832</v>
       </c>
       <c r="B7" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>638</v>
+        <v>798</v>
+      </c>
+      <c r="C7" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
+        <v>806</v>
       </c>
       <c r="B8" t="s">
-        <v>637</v>
-      </c>
-      <c r="C8" t="s">
-        <v>835</v>
-      </c>
-      <c r="D8" t="s">
-        <v>837</v>
-      </c>
-      <c r="E8" t="s">
-        <v>838</v>
-      </c>
-      <c r="F8" t="s">
-        <v>839</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>654</v>
+        <v>807</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B9" t="s">
-        <v>815</v>
-      </c>
-      <c r="C9" t="s">
-        <v>806</v>
+        <v>810</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>811</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>843</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
-        <v>842</v>
+        <v>816</v>
       </c>
       <c r="B10" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="C10" t="s">
-        <v>813</v>
+        <v>22</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
-        <v>816</v>
-      </c>
-      <c r="B11" t="s">
-        <v>817</v>
+        <v>819</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>820</v>
+      </c>
+      <c r="C11" t="s">
+        <v>821</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>819</v>
-      </c>
-      <c r="B12" t="s">
-        <v>820</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="G12" s="29" t="s">
         <v>818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
-        <v>826</v>
-      </c>
-      <c r="B13" t="s">
-        <v>827</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>829</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>830</v>
-      </c>
-      <c r="C14" t="s">
-        <v>831</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -12207,12 +12126,12 @@
         <v>536</v>
       </c>
       <c r="B1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="B2" s="29">
         <v>1960.91</v>
@@ -12220,7 +12139,7 @@
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B3" s="33">
         <v>39011882</v>
